--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My.CMake\MyLeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>分类</t>
   </si>
@@ -279,6 +279,12 @@
   <si>
     <t>E</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/burst-balloons/</t>
   </si>
 </sst>
 </file>
@@ -479,6 +485,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,10 +499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -813,8 +819,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -857,7 +863,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="16"/>
@@ -869,7 +875,7 @@
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="16"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -879,7 +885,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="16"/>
       <c r="C6" s="6" t="s">
         <v>57</v>
@@ -889,7 +895,7 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>58</v>
@@ -899,7 +905,7 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -909,7 +915,7 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="16"/>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -919,7 +925,7 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
@@ -929,7 +935,7 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="16"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
@@ -951,13 +957,13 @@
       <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -966,15 +972,15 @@
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
@@ -985,7 +991,7 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -998,23 +1004,23 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1031,7 @@
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
@@ -1036,7 +1042,7 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -1045,37 +1051,45 @@
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="16"/>
       <c r="C22" s="6" t="s">
         <v>30</v>
@@ -1084,7 +1098,7 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="16"/>
       <c r="C23" s="6" t="s">
         <v>31</v>
@@ -1106,7 +1120,7 @@
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="16"/>
@@ -1117,7 +1131,7 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="16"/>
       <c r="C26" s="5" t="s">
         <v>36</v>
@@ -1159,7 +1173,7 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="16"/>
@@ -1170,7 +1184,7 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="16"/>
       <c r="C31" s="5" t="s">
         <v>45</v>
@@ -1179,7 +1193,7 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="16"/>
       <c r="C32" s="5" t="s">
         <v>46</v>
@@ -1188,7 +1202,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -1197,15 +1211,15 @@
       <c r="C33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="16"/>
       <c r="C34" s="5" t="s">
         <v>51</v>
@@ -1214,7 +1228,7 @@
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="16"/>
       <c r="C35" s="5" t="s">
         <v>52</v>
@@ -1223,7 +1237,7 @@
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -1232,15 +1246,15 @@
       <c r="C36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="16"/>
       <c r="C37" s="5" t="s">
         <v>54</v>
@@ -1249,7 +1263,7 @@
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="16"/>
       <c r="C38" s="5" t="s">
         <v>55</v>
@@ -4938,8 +4952,12 @@
     <hyperlink ref="D36" r:id="rId10"/>
     <hyperlink ref="E33" r:id="rId11"/>
     <hyperlink ref="E36" r:id="rId12"/>
+    <hyperlink ref="D19" r:id="rId13"/>
+    <hyperlink ref="D21" r:id="rId14"/>
+    <hyperlink ref="E19" r:id="rId15"/>
+    <hyperlink ref="E21" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>分类</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/burst-balloons/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/</t>
   </si>
 </sst>
 </file>
@@ -819,8 +825,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1090,21 +1096,33 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
@@ -4956,8 +4974,12 @@
     <hyperlink ref="D21" r:id="rId14"/>
     <hyperlink ref="E19" r:id="rId15"/>
     <hyperlink ref="E21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18"/>
+    <hyperlink ref="E22" r:id="rId19"/>
+    <hyperlink ref="E23" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C3F20-6F76-4108-BD76-34A2D8FED333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="算法题" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>分类</t>
   </si>
@@ -291,12 +292,16 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/escape-a-large-maze/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -819,14 +824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1134,8 +1139,12 @@
       <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
@@ -4958,28 +4967,30 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="E13" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D16" r:id="rId5"/>
-    <hyperlink ref="E16" r:id="rId6"/>
-    <hyperlink ref="D20" r:id="rId7"/>
-    <hyperlink ref="E20" r:id="rId8"/>
-    <hyperlink ref="D33" r:id="rId9"/>
-    <hyperlink ref="D36" r:id="rId10"/>
-    <hyperlink ref="E33" r:id="rId11"/>
-    <hyperlink ref="E36" r:id="rId12"/>
-    <hyperlink ref="D19" r:id="rId13"/>
-    <hyperlink ref="D21" r:id="rId14"/>
-    <hyperlink ref="E19" r:id="rId15"/>
-    <hyperlink ref="E21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18"/>
-    <hyperlink ref="E22" r:id="rId19"/>
-    <hyperlink ref="E23" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D36" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D24" r:id="rId21" xr:uid="{9B2AABB1-530E-4F99-AB6D-BDF532B30F82}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{2353A1A6-B595-49F2-A646-8F64F08F2787}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C3F20-6F76-4108-BD76-34A2D8FED333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438AA809-CB13-4B9B-8D1B-A0956D48B457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>分类</t>
   </si>
@@ -296,6 +296,13 @@
   <si>
     <t>https://leetcode.com/problems/escape-a-large-maze/</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-queens/</t>
   </si>
 </sst>
 </file>
@@ -830,8 +837,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1049,8 +1056,12 @@
       <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
@@ -1150,7 +1161,9 @@
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1159,7 +1172,9 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
@@ -4989,8 +5004,10 @@
     <hyperlink ref="E23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="D24" r:id="rId21" xr:uid="{9B2AABB1-530E-4F99-AB6D-BDF532B30F82}"/>
     <hyperlink ref="E24" r:id="rId22" xr:uid="{2353A1A6-B595-49F2-A646-8F64F08F2787}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{55D02DAB-BE0E-4934-A1CE-A0327E57CCCF}"/>
+    <hyperlink ref="E18" r:id="rId24" xr:uid="{1955DA69-CC59-47CD-B99D-1825BC5D883B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438AA809-CB13-4B9B-8D1B-A0956D48B457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6BF88-A932-40E1-A871-B84E0919BD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>分类</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-ary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-area-of-island/</t>
   </si>
 </sst>
 </file>
@@ -838,7 +844,7 @@
   <dimension ref="A1:F952"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1018,8 +1024,12 @@
       <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
@@ -1045,8 +1055,12 @@
       <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
@@ -5006,8 +5020,12 @@
     <hyperlink ref="E24" r:id="rId22" xr:uid="{2353A1A6-B595-49F2-A646-8F64F08F2787}"/>
     <hyperlink ref="D18" r:id="rId23" xr:uid="{55D02DAB-BE0E-4934-A1CE-A0327E57CCCF}"/>
     <hyperlink ref="E18" r:id="rId24" xr:uid="{1955DA69-CC59-47CD-B99D-1825BC5D883B}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{45FC9469-17B6-452C-876A-A2C5CE3832A3}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{D83C779E-28B2-4DBF-8863-411AC8EE5D0A}"/>
+    <hyperlink ref="D17" r:id="rId27" xr:uid="{5D1910CA-4BF9-4ADF-BE90-6CBD659446C0}"/>
+    <hyperlink ref="E17" r:id="rId28" xr:uid="{9EC4A49A-1C29-40D2-8E3B-050E35AA031A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6BF88-A932-40E1-A871-B84E0919BD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5919A5-9678-4E53-A664-DF2EB478CED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>分类</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/max-area-of-island/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-oone-data-structure/</t>
   </si>
 </sst>
 </file>
@@ -843,8 +846,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1011,8 +1014,12 @@
       <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
@@ -5024,8 +5031,10 @@
     <hyperlink ref="E15" r:id="rId26" xr:uid="{D83C779E-28B2-4DBF-8863-411AC8EE5D0A}"/>
     <hyperlink ref="D17" r:id="rId27" xr:uid="{5D1910CA-4BF9-4ADF-BE90-6CBD659446C0}"/>
     <hyperlink ref="E17" r:id="rId28" xr:uid="{9EC4A49A-1C29-40D2-8E3B-050E35AA031A}"/>
+    <hyperlink ref="D14" r:id="rId29" xr:uid="{4063CB27-CC98-4CCF-A08C-F616CB99B2CD}"/>
+    <hyperlink ref="E14" r:id="rId30" xr:uid="{BBC560ED-8D63-4612-9E91-118A36A127B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5919A5-9678-4E53-A664-DF2EB478CED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B852A45-38E0-4866-BDFF-1E6E6A2BA3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>分类</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/all-oone-data-structure/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/random-pick-index/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-random-node/</t>
   </si>
 </sst>
 </file>
@@ -846,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1188,8 +1194,12 @@
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24"/>
@@ -1199,8 +1209,12 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
@@ -5033,8 +5047,12 @@
     <hyperlink ref="E17" r:id="rId28" xr:uid="{9EC4A49A-1C29-40D2-8E3B-050E35AA031A}"/>
     <hyperlink ref="D14" r:id="rId29" xr:uid="{4063CB27-CC98-4CCF-A08C-F616CB99B2CD}"/>
     <hyperlink ref="E14" r:id="rId30" xr:uid="{BBC560ED-8D63-4612-9E91-118A36A127B3}"/>
+    <hyperlink ref="D26" r:id="rId31" xr:uid="{395644BA-8EA3-4E06-9213-9798359B2023}"/>
+    <hyperlink ref="D25" r:id="rId32" xr:uid="{92EFAD95-3BD1-4A58-B057-4F1AE2B4F89D}"/>
+    <hyperlink ref="E25" r:id="rId33" xr:uid="{E76D1087-ED6C-44B0-B0F0-B3CA075C1EE7}"/>
+    <hyperlink ref="E26" r:id="rId34" xr:uid="{13213FAF-EE94-485A-89DD-9E5E4999006A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B852A45-38E0-4866-BDFF-1E6E6A2BA3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C9C1D5-837E-4B41-9DBE-D042614D5956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>分类</t>
   </si>
@@ -318,6 +318,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/linked-list-random-node/</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/friend-circles/</t>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-immutable/</t>
   </si>
 </sst>
 </file>
@@ -852,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1220,44 +1244,66 @@
       <c r="A27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="C28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5025,34 +5071,41 @@
     <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D36" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E33" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{9B2AABB1-530E-4F99-AB6D-BDF532B30F82}"/>
-    <hyperlink ref="E24" r:id="rId22" xr:uid="{2353A1A6-B595-49F2-A646-8F64F08F2787}"/>
-    <hyperlink ref="D18" r:id="rId23" xr:uid="{55D02DAB-BE0E-4934-A1CE-A0327E57CCCF}"/>
-    <hyperlink ref="E18" r:id="rId24" xr:uid="{1955DA69-CC59-47CD-B99D-1825BC5D883B}"/>
-    <hyperlink ref="D15" r:id="rId25" xr:uid="{45FC9469-17B6-452C-876A-A2C5CE3832A3}"/>
-    <hyperlink ref="E15" r:id="rId26" xr:uid="{D83C779E-28B2-4DBF-8863-411AC8EE5D0A}"/>
-    <hyperlink ref="D17" r:id="rId27" xr:uid="{5D1910CA-4BF9-4ADF-BE90-6CBD659446C0}"/>
-    <hyperlink ref="E17" r:id="rId28" xr:uid="{9EC4A49A-1C29-40D2-8E3B-050E35AA031A}"/>
-    <hyperlink ref="D14" r:id="rId29" xr:uid="{4063CB27-CC98-4CCF-A08C-F616CB99B2CD}"/>
-    <hyperlink ref="E14" r:id="rId30" xr:uid="{BBC560ED-8D63-4612-9E91-118A36A127B3}"/>
-    <hyperlink ref="D26" r:id="rId31" xr:uid="{395644BA-8EA3-4E06-9213-9798359B2023}"/>
-    <hyperlink ref="D25" r:id="rId32" xr:uid="{92EFAD95-3BD1-4A58-B057-4F1AE2B4F89D}"/>
-    <hyperlink ref="E25" r:id="rId33" xr:uid="{E76D1087-ED6C-44B0-B0F0-B3CA075C1EE7}"/>
-    <hyperlink ref="E26" r:id="rId34" xr:uid="{13213FAF-EE94-485A-89DD-9E5E4999006A}"/>
+    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E36" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{9B2AABB1-530E-4F99-AB6D-BDF532B30F82}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{2353A1A6-B595-49F2-A646-8F64F08F2787}"/>
+    <hyperlink ref="D18" r:id="rId21" xr:uid="{55D02DAB-BE0E-4934-A1CE-A0327E57CCCF}"/>
+    <hyperlink ref="E18" r:id="rId22" xr:uid="{1955DA69-CC59-47CD-B99D-1825BC5D883B}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{45FC9469-17B6-452C-876A-A2C5CE3832A3}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{D83C779E-28B2-4DBF-8863-411AC8EE5D0A}"/>
+    <hyperlink ref="D17" r:id="rId25" xr:uid="{5D1910CA-4BF9-4ADF-BE90-6CBD659446C0}"/>
+    <hyperlink ref="E17" r:id="rId26" xr:uid="{9EC4A49A-1C29-40D2-8E3B-050E35AA031A}"/>
+    <hyperlink ref="D14" r:id="rId27" xr:uid="{4063CB27-CC98-4CCF-A08C-F616CB99B2CD}"/>
+    <hyperlink ref="E14" r:id="rId28" xr:uid="{BBC560ED-8D63-4612-9E91-118A36A127B3}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{395644BA-8EA3-4E06-9213-9798359B2023}"/>
+    <hyperlink ref="D25" r:id="rId30" xr:uid="{92EFAD95-3BD1-4A58-B057-4F1AE2B4F89D}"/>
+    <hyperlink ref="E25" r:id="rId31" xr:uid="{E76D1087-ED6C-44B0-B0F0-B3CA075C1EE7}"/>
+    <hyperlink ref="E26" r:id="rId32" xr:uid="{13213FAF-EE94-485A-89DD-9E5E4999006A}"/>
+    <hyperlink ref="D27" r:id="rId33" xr:uid="{97E6B46C-50AE-4174-8944-5C8E1B276093}"/>
+    <hyperlink ref="E27" r:id="rId34" xr:uid="{1204CF59-2C46-4CDD-B79F-C259087D56A6}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D33" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D28" r:id="rId37" xr:uid="{C5C7AC9E-F24B-48E3-B9E4-FDA4BBA244CF}"/>
+    <hyperlink ref="E28" r:id="rId38" xr:uid="{12E574DD-0E66-45B9-9DF4-6F15603546DA}"/>
+    <hyperlink ref="D29" r:id="rId39" xr:uid="{9F101B68-027B-4C32-8B4D-7F1FC55ECC4D}"/>
+    <hyperlink ref="E29" r:id="rId40" xr:uid="{002FFDF5-1EE5-4C94-A78D-75EB30187544}"/>
+    <hyperlink ref="D30" r:id="rId41" xr:uid="{21F667C2-98E5-4C5E-B8CB-D22EC4073561}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C9C1D5-837E-4B41-9DBE-D042614D5956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F216AC-5D45-4F4F-8EC7-BEC0A192FCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>分类</t>
   </si>
@@ -342,6 +342,13 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/range-sum-query-immutable/</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-mutable/</t>
   </si>
 </sst>
 </file>
@@ -876,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1304,16 +1311,24 @@
       <c r="D30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="C31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
@@ -1322,7 +1337,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
@@ -5104,8 +5119,11 @@
     <hyperlink ref="D29" r:id="rId39" xr:uid="{9F101B68-027B-4C32-8B4D-7F1FC55ECC4D}"/>
     <hyperlink ref="E29" r:id="rId40" xr:uid="{002FFDF5-1EE5-4C94-A78D-75EB30187544}"/>
     <hyperlink ref="D30" r:id="rId41" xr:uid="{21F667C2-98E5-4C5E-B8CB-D22EC4073561}"/>
+    <hyperlink ref="E30" r:id="rId42" xr:uid="{D0BEC808-10B9-4072-BE01-E776DDC4397F}"/>
+    <hyperlink ref="E31" r:id="rId43" xr:uid="{5E6E1DF9-BA1E-4559-BBF5-E5BC1C38BE9D}"/>
+    <hyperlink ref="D31" r:id="rId44" xr:uid="{1599C469-3AC1-4719-9740-804A8DC2ACF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F216AC-5D45-4F4F-8EC7-BEC0A192FCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC46DEE-F339-4F02-9B77-961FE2AD1499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>分类</t>
   </si>
@@ -349,6 +349,33 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/range-sum-query-mutable/</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-of-smaller-numbers-after-self/</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-largest-sum/</t>
+  </si>
+  <si>
+    <t>c++</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -500,6 +527,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -529,9 +571,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,7 +591,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +601,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -883,14 +923,14 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="57.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="72.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
@@ -899,11 +939,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="17"/>
+      <c r="B1" s="16"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17"/>
+      <c r="B2" s="16"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" x14ac:dyDescent="0.4">
@@ -927,4142 +967,4168 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="C34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="C35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="C37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="C38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
+      <c r="B43" s="16"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="17"/>
+      <c r="B44" s="16"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="17"/>
+      <c r="B45" s="16"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
+      <c r="B46" s="16"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
+      <c r="B47" s="16"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
+      <c r="B48" s="16"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="17"/>
+      <c r="B49" s="16"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
+      <c r="B50" s="16"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
+      <c r="B51" s="16"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
+      <c r="B52" s="16"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
+      <c r="B53" s="16"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
+      <c r="B54" s="16"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
+      <c r="B55" s="16"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="17"/>
+      <c r="B56" s="16"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="17"/>
+      <c r="B57" s="16"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="17"/>
+      <c r="B58" s="16"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
+      <c r="B59" s="16"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B60" s="17"/>
+      <c r="B60" s="16"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="17"/>
+      <c r="B61" s="16"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="17"/>
+      <c r="B62" s="16"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="17"/>
+      <c r="B63" s="16"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="17"/>
+      <c r="B64" s="16"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="17"/>
+      <c r="B65" s="16"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="17"/>
+      <c r="B66" s="16"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="17"/>
+      <c r="B67" s="16"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B68" s="17"/>
+      <c r="B68" s="16"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="17"/>
+      <c r="B69" s="16"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="17"/>
+      <c r="B70" s="16"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="17"/>
+      <c r="B71" s="16"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B72" s="17"/>
+      <c r="B72" s="16"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="17"/>
+      <c r="B73" s="16"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B74" s="17"/>
+      <c r="B74" s="16"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="17"/>
+      <c r="B75" s="16"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="17"/>
+      <c r="B76" s="16"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B77" s="17"/>
+      <c r="B77" s="16"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B78" s="17"/>
+      <c r="B78" s="16"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="17"/>
+      <c r="B79" s="16"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B80" s="17"/>
+      <c r="B80" s="16"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B81" s="17"/>
+      <c r="B81" s="16"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="17"/>
+      <c r="B82" s="16"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B83" s="17"/>
+      <c r="B83" s="16"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="17"/>
+      <c r="B84" s="16"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B85" s="17"/>
+      <c r="B85" s="16"/>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B86" s="17"/>
+      <c r="B86" s="16"/>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B87" s="17"/>
+      <c r="B87" s="16"/>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="17"/>
+      <c r="B88" s="16"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="17"/>
+      <c r="B89" s="16"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B90" s="17"/>
+      <c r="B90" s="16"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B91" s="17"/>
+      <c r="B91" s="16"/>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B92" s="17"/>
+      <c r="B92" s="16"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B93" s="17"/>
+      <c r="B93" s="16"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B94" s="17"/>
+      <c r="B94" s="16"/>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B95" s="17"/>
+      <c r="B95" s="16"/>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B96" s="17"/>
+      <c r="B96" s="16"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B97" s="17"/>
+      <c r="B97" s="16"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B98" s="17"/>
+      <c r="B98" s="16"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B99" s="17"/>
+      <c r="B99" s="16"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B100" s="17"/>
+      <c r="B100" s="16"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B101" s="17"/>
+      <c r="B101" s="16"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B102" s="17"/>
+      <c r="B102" s="16"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B103" s="17"/>
+      <c r="B103" s="16"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B104" s="17"/>
+      <c r="B104" s="16"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="17"/>
+      <c r="B105" s="16"/>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="17"/>
+      <c r="B106" s="16"/>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="17"/>
+      <c r="B107" s="16"/>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="17"/>
+      <c r="B108" s="16"/>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="17"/>
+      <c r="B109" s="16"/>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B110" s="17"/>
+      <c r="B110" s="16"/>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B111" s="17"/>
+      <c r="B111" s="16"/>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B112" s="17"/>
+      <c r="B112" s="16"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B113" s="17"/>
+      <c r="B113" s="16"/>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B114" s="17"/>
+      <c r="B114" s="16"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B115" s="17"/>
+      <c r="B115" s="16"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B116" s="17"/>
+      <c r="B116" s="16"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B117" s="17"/>
+      <c r="B117" s="16"/>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B118" s="17"/>
+      <c r="B118" s="16"/>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B119" s="17"/>
+      <c r="B119" s="16"/>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B120" s="17"/>
+      <c r="B120" s="16"/>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B121" s="17"/>
+      <c r="B121" s="16"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B122" s="17"/>
+      <c r="B122" s="16"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B123" s="17"/>
+      <c r="B123" s="16"/>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B124" s="17"/>
+      <c r="B124" s="16"/>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B125" s="17"/>
+      <c r="B125" s="16"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B126" s="17"/>
+      <c r="B126" s="16"/>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B127" s="17"/>
+      <c r="B127" s="16"/>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B128" s="17"/>
+      <c r="B128" s="16"/>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B129" s="17"/>
+      <c r="B129" s="16"/>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B130" s="17"/>
+      <c r="B130" s="16"/>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B131" s="17"/>
+      <c r="B131" s="16"/>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B132" s="17"/>
+      <c r="B132" s="16"/>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B133" s="17"/>
+      <c r="B133" s="16"/>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B134" s="17"/>
+      <c r="B134" s="16"/>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B135" s="17"/>
+      <c r="B135" s="16"/>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B136" s="17"/>
+      <c r="B136" s="16"/>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B137" s="17"/>
+      <c r="B137" s="16"/>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B138" s="17"/>
+      <c r="B138" s="16"/>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B139" s="17"/>
+      <c r="B139" s="16"/>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B140" s="17"/>
+      <c r="B140" s="16"/>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B141" s="17"/>
+      <c r="B141" s="16"/>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B142" s="17"/>
+      <c r="B142" s="16"/>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B143" s="17"/>
+      <c r="B143" s="16"/>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B144" s="17"/>
+      <c r="B144" s="16"/>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B145" s="17"/>
+      <c r="B145" s="16"/>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B146" s="17"/>
+      <c r="B146" s="16"/>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B147" s="17"/>
+      <c r="B147" s="16"/>
       <c r="E147" s="2"/>
     </row>
     <row r="148" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B148" s="17"/>
+      <c r="B148" s="16"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B149" s="17"/>
+      <c r="B149" s="16"/>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B150" s="17"/>
+      <c r="B150" s="16"/>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B151" s="17"/>
+      <c r="B151" s="16"/>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B152" s="17"/>
+      <c r="B152" s="16"/>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B153" s="17"/>
+      <c r="B153" s="16"/>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B154" s="17"/>
+      <c r="B154" s="16"/>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B155" s="17"/>
+      <c r="B155" s="16"/>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B156" s="17"/>
+      <c r="B156" s="16"/>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B157" s="17"/>
+      <c r="B157" s="16"/>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B158" s="17"/>
+      <c r="B158" s="16"/>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B159" s="17"/>
+      <c r="B159" s="16"/>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B160" s="17"/>
+      <c r="B160" s="16"/>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B161" s="17"/>
+      <c r="B161" s="16"/>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B162" s="17"/>
+      <c r="B162" s="16"/>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B163" s="17"/>
+      <c r="B163" s="16"/>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B164" s="17"/>
+      <c r="B164" s="16"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B165" s="17"/>
+      <c r="B165" s="16"/>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B166" s="17"/>
+      <c r="B166" s="16"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B167" s="17"/>
+      <c r="B167" s="16"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B168" s="17"/>
+      <c r="B168" s="16"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B169" s="17"/>
+      <c r="B169" s="16"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B170" s="17"/>
+      <c r="B170" s="16"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B171" s="17"/>
+      <c r="B171" s="16"/>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B172" s="17"/>
+      <c r="B172" s="16"/>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B173" s="17"/>
+      <c r="B173" s="16"/>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B174" s="17"/>
+      <c r="B174" s="16"/>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B175" s="17"/>
+      <c r="B175" s="16"/>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B176" s="17"/>
+      <c r="B176" s="16"/>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B177" s="17"/>
+      <c r="B177" s="16"/>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B178" s="17"/>
+      <c r="B178" s="16"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B179" s="17"/>
+      <c r="B179" s="16"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B180" s="17"/>
+      <c r="B180" s="16"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B181" s="17"/>
+      <c r="B181" s="16"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B182" s="17"/>
+      <c r="B182" s="16"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B183" s="17"/>
+      <c r="B183" s="16"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B184" s="17"/>
+      <c r="B184" s="16"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B185" s="17"/>
+      <c r="B185" s="16"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B186" s="17"/>
+      <c r="B186" s="16"/>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B187" s="17"/>
+      <c r="B187" s="16"/>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B188" s="17"/>
+      <c r="B188" s="16"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B189" s="17"/>
+      <c r="B189" s="16"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B190" s="17"/>
+      <c r="B190" s="16"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B191" s="17"/>
+      <c r="B191" s="16"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B192" s="17"/>
+      <c r="B192" s="16"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B193" s="17"/>
+      <c r="B193" s="16"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B194" s="17"/>
+      <c r="B194" s="16"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B195" s="17"/>
+      <c r="B195" s="16"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B196" s="17"/>
+      <c r="B196" s="16"/>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B197" s="17"/>
+      <c r="B197" s="16"/>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B198" s="17"/>
+      <c r="B198" s="16"/>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B199" s="17"/>
+      <c r="B199" s="16"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B200" s="17"/>
+      <c r="B200" s="16"/>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B201" s="17"/>
+      <c r="B201" s="16"/>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B202" s="17"/>
+      <c r="B202" s="16"/>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B203" s="17"/>
+      <c r="B203" s="16"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B204" s="17"/>
+      <c r="B204" s="16"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B205" s="17"/>
+      <c r="B205" s="16"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B206" s="17"/>
+      <c r="B206" s="16"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B207" s="17"/>
+      <c r="B207" s="16"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B208" s="17"/>
+      <c r="B208" s="16"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B209" s="17"/>
+      <c r="B209" s="16"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B210" s="17"/>
+      <c r="B210" s="16"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B211" s="17"/>
+      <c r="B211" s="16"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B212" s="17"/>
+      <c r="B212" s="16"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B213" s="17"/>
+      <c r="B213" s="16"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B214" s="17"/>
+      <c r="B214" s="16"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B215" s="17"/>
+      <c r="B215" s="16"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B216" s="17"/>
+      <c r="B216" s="16"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B217" s="17"/>
+      <c r="B217" s="16"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B218" s="17"/>
+      <c r="B218" s="16"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B219" s="17"/>
+      <c r="B219" s="16"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B220" s="17"/>
+      <c r="B220" s="16"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B221" s="17"/>
+      <c r="B221" s="16"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B222" s="17"/>
+      <c r="B222" s="16"/>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B223" s="17"/>
+      <c r="B223" s="16"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B224" s="17"/>
+      <c r="B224" s="16"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B225" s="17"/>
+      <c r="B225" s="16"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B226" s="17"/>
+      <c r="B226" s="16"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B227" s="17"/>
+      <c r="B227" s="16"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B228" s="17"/>
+      <c r="B228" s="16"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B229" s="17"/>
+      <c r="B229" s="16"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B230" s="17"/>
+      <c r="B230" s="16"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B231" s="17"/>
+      <c r="B231" s="16"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B232" s="17"/>
+      <c r="B232" s="16"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B233" s="17"/>
+      <c r="B233" s="16"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B234" s="17"/>
+      <c r="B234" s="16"/>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B235" s="17"/>
+      <c r="B235" s="16"/>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B236" s="17"/>
+      <c r="B236" s="16"/>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B237" s="17"/>
+      <c r="B237" s="16"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B238" s="17"/>
+      <c r="B238" s="16"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B239" s="17"/>
+      <c r="B239" s="16"/>
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B240" s="17"/>
+      <c r="B240" s="16"/>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B241" s="17"/>
+      <c r="B241" s="16"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B242" s="17"/>
+      <c r="B242" s="16"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B243" s="17"/>
+      <c r="B243" s="16"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B244" s="17"/>
+      <c r="B244" s="16"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B245" s="17"/>
+      <c r="B245" s="16"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B246" s="17"/>
+      <c r="B246" s="16"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B247" s="17"/>
+      <c r="B247" s="16"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B248" s="17"/>
+      <c r="B248" s="16"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B249" s="17"/>
+      <c r="B249" s="16"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B250" s="17"/>
+      <c r="B250" s="16"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B251" s="17"/>
+      <c r="B251" s="16"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B252" s="17"/>
+      <c r="B252" s="16"/>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B253" s="17"/>
+      <c r="B253" s="16"/>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B254" s="17"/>
+      <c r="B254" s="16"/>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B255" s="17"/>
+      <c r="B255" s="16"/>
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B256" s="17"/>
+      <c r="B256" s="16"/>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B257" s="17"/>
+      <c r="B257" s="16"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B258" s="17"/>
+      <c r="B258" s="16"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B259" s="17"/>
+      <c r="B259" s="16"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B260" s="17"/>
+      <c r="B260" s="16"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B261" s="17"/>
+      <c r="B261" s="16"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B262" s="17"/>
+      <c r="B262" s="16"/>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B263" s="17"/>
+      <c r="B263" s="16"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B264" s="17"/>
+      <c r="B264" s="16"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B265" s="17"/>
+      <c r="B265" s="16"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B266" s="17"/>
+      <c r="B266" s="16"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B267" s="17"/>
+      <c r="B267" s="16"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B268" s="17"/>
+      <c r="B268" s="16"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B269" s="17"/>
+      <c r="B269" s="16"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B270" s="17"/>
+      <c r="B270" s="16"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B271" s="17"/>
+      <c r="B271" s="16"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B272" s="17"/>
+      <c r="B272" s="16"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B273" s="17"/>
+      <c r="B273" s="16"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B274" s="17"/>
+      <c r="B274" s="16"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B275" s="17"/>
+      <c r="B275" s="16"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B276" s="17"/>
+      <c r="B276" s="16"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B277" s="17"/>
+      <c r="B277" s="16"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B278" s="17"/>
+      <c r="B278" s="16"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B279" s="17"/>
+      <c r="B279" s="16"/>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B280" s="17"/>
+      <c r="B280" s="16"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B281" s="17"/>
+      <c r="B281" s="16"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B282" s="17"/>
+      <c r="B282" s="16"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B283" s="17"/>
+      <c r="B283" s="16"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B284" s="17"/>
+      <c r="B284" s="16"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B285" s="17"/>
+      <c r="B285" s="16"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B286" s="17"/>
+      <c r="B286" s="16"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B287" s="17"/>
+      <c r="B287" s="16"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B288" s="17"/>
+      <c r="B288" s="16"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B289" s="17"/>
+      <c r="B289" s="16"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B290" s="17"/>
+      <c r="B290" s="16"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B291" s="17"/>
+      <c r="B291" s="16"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B292" s="17"/>
+      <c r="B292" s="16"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B293" s="17"/>
+      <c r="B293" s="16"/>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B294" s="17"/>
+      <c r="B294" s="16"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B295" s="17"/>
+      <c r="B295" s="16"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B296" s="17"/>
+      <c r="B296" s="16"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B297" s="17"/>
+      <c r="B297" s="16"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B298" s="17"/>
+      <c r="B298" s="16"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B299" s="17"/>
+      <c r="B299" s="16"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B300" s="17"/>
+      <c r="B300" s="16"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B301" s="17"/>
+      <c r="B301" s="16"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B302" s="17"/>
+      <c r="B302" s="16"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B303" s="17"/>
+      <c r="B303" s="16"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B304" s="17"/>
+      <c r="B304" s="16"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B305" s="17"/>
+      <c r="B305" s="16"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B306" s="17"/>
+      <c r="B306" s="16"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B307" s="17"/>
+      <c r="B307" s="16"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B308" s="17"/>
+      <c r="B308" s="16"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B309" s="17"/>
+      <c r="B309" s="16"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B310" s="17"/>
+      <c r="B310" s="16"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B311" s="17"/>
+      <c r="B311" s="16"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B312" s="17"/>
+      <c r="B312" s="16"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B313" s="17"/>
+      <c r="B313" s="16"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B314" s="17"/>
+      <c r="B314" s="16"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B315" s="17"/>
+      <c r="B315" s="16"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B316" s="17"/>
+      <c r="B316" s="16"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B317" s="17"/>
+      <c r="B317" s="16"/>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B318" s="17"/>
+      <c r="B318" s="16"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B319" s="17"/>
+      <c r="B319" s="16"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B320" s="17"/>
+      <c r="B320" s="16"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B321" s="17"/>
+      <c r="B321" s="16"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B322" s="17"/>
+      <c r="B322" s="16"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B323" s="17"/>
+      <c r="B323" s="16"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B324" s="17"/>
+      <c r="B324" s="16"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B325" s="17"/>
+      <c r="B325" s="16"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B326" s="17"/>
+      <c r="B326" s="16"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B327" s="17"/>
+      <c r="B327" s="16"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B328" s="17"/>
+      <c r="B328" s="16"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B329" s="17"/>
+      <c r="B329" s="16"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B330" s="17"/>
+      <c r="B330" s="16"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B331" s="17"/>
+      <c r="B331" s="16"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B332" s="17"/>
+      <c r="B332" s="16"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B333" s="17"/>
+      <c r="B333" s="16"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B334" s="17"/>
+      <c r="B334" s="16"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B335" s="17"/>
+      <c r="B335" s="16"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B336" s="17"/>
+      <c r="B336" s="16"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B337" s="17"/>
+      <c r="B337" s="16"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B338" s="17"/>
+      <c r="B338" s="16"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B339" s="17"/>
+      <c r="B339" s="16"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B340" s="17"/>
+      <c r="B340" s="16"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B341" s="17"/>
+      <c r="B341" s="16"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B342" s="17"/>
+      <c r="B342" s="16"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B343" s="17"/>
+      <c r="B343" s="16"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B344" s="17"/>
+      <c r="B344" s="16"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B345" s="17"/>
+      <c r="B345" s="16"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B346" s="17"/>
+      <c r="B346" s="16"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B347" s="17"/>
+      <c r="B347" s="16"/>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B348" s="17"/>
+      <c r="B348" s="16"/>
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B349" s="17"/>
+      <c r="B349" s="16"/>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B350" s="17"/>
+      <c r="B350" s="16"/>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B351" s="17"/>
+      <c r="B351" s="16"/>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B352" s="17"/>
+      <c r="B352" s="16"/>
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B353" s="17"/>
+      <c r="B353" s="16"/>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B354" s="17"/>
+      <c r="B354" s="16"/>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B355" s="17"/>
+      <c r="B355" s="16"/>
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B356" s="17"/>
+      <c r="B356" s="16"/>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B357" s="17"/>
+      <c r="B357" s="16"/>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B358" s="17"/>
+      <c r="B358" s="16"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B359" s="17"/>
+      <c r="B359" s="16"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B360" s="17"/>
+      <c r="B360" s="16"/>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B361" s="17"/>
+      <c r="B361" s="16"/>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B362" s="17"/>
+      <c r="B362" s="16"/>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B363" s="17"/>
+      <c r="B363" s="16"/>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B364" s="17"/>
+      <c r="B364" s="16"/>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B365" s="17"/>
+      <c r="B365" s="16"/>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B366" s="17"/>
+      <c r="B366" s="16"/>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B367" s="17"/>
+      <c r="B367" s="16"/>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B368" s="17"/>
+      <c r="B368" s="16"/>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B369" s="17"/>
+      <c r="B369" s="16"/>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B370" s="17"/>
+      <c r="B370" s="16"/>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B371" s="17"/>
+      <c r="B371" s="16"/>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B372" s="17"/>
+      <c r="B372" s="16"/>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B373" s="17"/>
+      <c r="B373" s="16"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B374" s="17"/>
+      <c r="B374" s="16"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B375" s="17"/>
+      <c r="B375" s="16"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B376" s="17"/>
+      <c r="B376" s="16"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B377" s="17"/>
+      <c r="B377" s="16"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B378" s="17"/>
+      <c r="B378" s="16"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B379" s="17"/>
+      <c r="B379" s="16"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B380" s="17"/>
+      <c r="B380" s="16"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B381" s="17"/>
+      <c r="B381" s="16"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B382" s="17"/>
+      <c r="B382" s="16"/>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B383" s="17"/>
+      <c r="B383" s="16"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B384" s="17"/>
+      <c r="B384" s="16"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B385" s="17"/>
+      <c r="B385" s="16"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B386" s="17"/>
+      <c r="B386" s="16"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B387" s="17"/>
+      <c r="B387" s="16"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B388" s="17"/>
+      <c r="B388" s="16"/>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B389" s="17"/>
+      <c r="B389" s="16"/>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B390" s="17"/>
+      <c r="B390" s="16"/>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B391" s="17"/>
+      <c r="B391" s="16"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B392" s="17"/>
+      <c r="B392" s="16"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B393" s="17"/>
+      <c r="B393" s="16"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B394" s="17"/>
+      <c r="B394" s="16"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B395" s="17"/>
+      <c r="B395" s="16"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B396" s="17"/>
+      <c r="B396" s="16"/>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B397" s="17"/>
+      <c r="B397" s="16"/>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B398" s="17"/>
+      <c r="B398" s="16"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B399" s="17"/>
+      <c r="B399" s="16"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B400" s="17"/>
+      <c r="B400" s="16"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B401" s="17"/>
+      <c r="B401" s="16"/>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B402" s="17"/>
+      <c r="B402" s="16"/>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B403" s="17"/>
+      <c r="B403" s="16"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B404" s="17"/>
+      <c r="B404" s="16"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B405" s="17"/>
+      <c r="B405" s="16"/>
       <c r="E405" s="2"/>
     </row>
     <row r="406" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B406" s="17"/>
+      <c r="B406" s="16"/>
       <c r="E406" s="2"/>
     </row>
     <row r="407" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B407" s="17"/>
+      <c r="B407" s="16"/>
       <c r="E407" s="2"/>
     </row>
     <row r="408" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B408" s="17"/>
+      <c r="B408" s="16"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B409" s="17"/>
+      <c r="B409" s="16"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B410" s="17"/>
+      <c r="B410" s="16"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B411" s="17"/>
+      <c r="B411" s="16"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B412" s="17"/>
+      <c r="B412" s="16"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B413" s="17"/>
+      <c r="B413" s="16"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B414" s="17"/>
+      <c r="B414" s="16"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B415" s="17"/>
+      <c r="B415" s="16"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B416" s="17"/>
+      <c r="B416" s="16"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B417" s="17"/>
+      <c r="B417" s="16"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B418" s="17"/>
+      <c r="B418" s="16"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B419" s="17"/>
+      <c r="B419" s="16"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B420" s="17"/>
+      <c r="B420" s="16"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B421" s="17"/>
+      <c r="B421" s="16"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B422" s="17"/>
+      <c r="B422" s="16"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B423" s="17"/>
+      <c r="B423" s="16"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B424" s="17"/>
+      <c r="B424" s="16"/>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B425" s="17"/>
+      <c r="B425" s="16"/>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B426" s="17"/>
+      <c r="B426" s="16"/>
       <c r="E426" s="2"/>
     </row>
     <row r="427" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B427" s="17"/>
+      <c r="B427" s="16"/>
       <c r="E427" s="2"/>
     </row>
     <row r="428" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B428" s="17"/>
+      <c r="B428" s="16"/>
       <c r="E428" s="2"/>
     </row>
     <row r="429" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B429" s="17"/>
+      <c r="B429" s="16"/>
       <c r="E429" s="2"/>
     </row>
     <row r="430" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B430" s="17"/>
+      <c r="B430" s="16"/>
       <c r="E430" s="2"/>
     </row>
     <row r="431" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B431" s="17"/>
+      <c r="B431" s="16"/>
       <c r="E431" s="2"/>
     </row>
     <row r="432" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B432" s="17"/>
+      <c r="B432" s="16"/>
       <c r="E432" s="2"/>
     </row>
     <row r="433" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B433" s="17"/>
+      <c r="B433" s="16"/>
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B434" s="17"/>
+      <c r="B434" s="16"/>
       <c r="E434" s="2"/>
     </row>
     <row r="435" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B435" s="17"/>
+      <c r="B435" s="16"/>
       <c r="E435" s="2"/>
     </row>
     <row r="436" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B436" s="17"/>
+      <c r="B436" s="16"/>
       <c r="E436" s="2"/>
     </row>
     <row r="437" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B437" s="17"/>
+      <c r="B437" s="16"/>
       <c r="E437" s="2"/>
     </row>
     <row r="438" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B438" s="17"/>
+      <c r="B438" s="16"/>
       <c r="E438" s="2"/>
     </row>
     <row r="439" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B439" s="17"/>
+      <c r="B439" s="16"/>
       <c r="E439" s="2"/>
     </row>
     <row r="440" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B440" s="17"/>
+      <c r="B440" s="16"/>
       <c r="E440" s="2"/>
     </row>
     <row r="441" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B441" s="17"/>
+      <c r="B441" s="16"/>
       <c r="E441" s="2"/>
     </row>
     <row r="442" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B442" s="17"/>
+      <c r="B442" s="16"/>
       <c r="E442" s="2"/>
     </row>
     <row r="443" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B443" s="17"/>
+      <c r="B443" s="16"/>
       <c r="E443" s="2"/>
     </row>
     <row r="444" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B444" s="17"/>
+      <c r="B444" s="16"/>
       <c r="E444" s="2"/>
     </row>
     <row r="445" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B445" s="17"/>
+      <c r="B445" s="16"/>
       <c r="E445" s="2"/>
     </row>
     <row r="446" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B446" s="17"/>
+      <c r="B446" s="16"/>
       <c r="E446" s="2"/>
     </row>
     <row r="447" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B447" s="17"/>
+      <c r="B447" s="16"/>
       <c r="E447" s="2"/>
     </row>
     <row r="448" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B448" s="17"/>
+      <c r="B448" s="16"/>
       <c r="E448" s="2"/>
     </row>
     <row r="449" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B449" s="17"/>
+      <c r="B449" s="16"/>
       <c r="E449" s="2"/>
     </row>
     <row r="450" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B450" s="17"/>
+      <c r="B450" s="16"/>
       <c r="E450" s="2"/>
     </row>
     <row r="451" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B451" s="17"/>
+      <c r="B451" s="16"/>
       <c r="E451" s="2"/>
     </row>
     <row r="452" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B452" s="17"/>
+      <c r="B452" s="16"/>
       <c r="E452" s="2"/>
     </row>
     <row r="453" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B453" s="17"/>
+      <c r="B453" s="16"/>
       <c r="E453" s="2"/>
     </row>
     <row r="454" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B454" s="17"/>
+      <c r="B454" s="16"/>
       <c r="E454" s="2"/>
     </row>
     <row r="455" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B455" s="17"/>
+      <c r="B455" s="16"/>
       <c r="E455" s="2"/>
     </row>
     <row r="456" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B456" s="17"/>
+      <c r="B456" s="16"/>
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B457" s="17"/>
+      <c r="B457" s="16"/>
       <c r="E457" s="2"/>
     </row>
     <row r="458" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B458" s="17"/>
+      <c r="B458" s="16"/>
       <c r="E458" s="2"/>
     </row>
     <row r="459" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B459" s="17"/>
+      <c r="B459" s="16"/>
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B460" s="17"/>
+      <c r="B460" s="16"/>
       <c r="E460" s="2"/>
     </row>
     <row r="461" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B461" s="17"/>
+      <c r="B461" s="16"/>
       <c r="E461" s="2"/>
     </row>
     <row r="462" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B462" s="17"/>
+      <c r="B462" s="16"/>
       <c r="E462" s="2"/>
     </row>
     <row r="463" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B463" s="17"/>
+      <c r="B463" s="16"/>
       <c r="E463" s="2"/>
     </row>
     <row r="464" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B464" s="17"/>
+      <c r="B464" s="16"/>
       <c r="E464" s="2"/>
     </row>
     <row r="465" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B465" s="17"/>
+      <c r="B465" s="16"/>
       <c r="E465" s="2"/>
     </row>
     <row r="466" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B466" s="17"/>
+      <c r="B466" s="16"/>
       <c r="E466" s="2"/>
     </row>
     <row r="467" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B467" s="17"/>
+      <c r="B467" s="16"/>
       <c r="E467" s="2"/>
     </row>
     <row r="468" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B468" s="17"/>
+      <c r="B468" s="16"/>
       <c r="E468" s="2"/>
     </row>
     <row r="469" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B469" s="17"/>
+      <c r="B469" s="16"/>
       <c r="E469" s="2"/>
     </row>
     <row r="470" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B470" s="17"/>
+      <c r="B470" s="16"/>
       <c r="E470" s="2"/>
     </row>
     <row r="471" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B471" s="17"/>
+      <c r="B471" s="16"/>
       <c r="E471" s="2"/>
     </row>
     <row r="472" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B472" s="17"/>
+      <c r="B472" s="16"/>
       <c r="E472" s="2"/>
     </row>
     <row r="473" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B473" s="17"/>
+      <c r="B473" s="16"/>
       <c r="E473" s="2"/>
     </row>
     <row r="474" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B474" s="17"/>
+      <c r="B474" s="16"/>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B475" s="17"/>
+      <c r="B475" s="16"/>
       <c r="E475" s="2"/>
     </row>
     <row r="476" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B476" s="17"/>
+      <c r="B476" s="16"/>
       <c r="E476" s="2"/>
     </row>
     <row r="477" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B477" s="17"/>
+      <c r="B477" s="16"/>
       <c r="E477" s="2"/>
     </row>
     <row r="478" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B478" s="17"/>
+      <c r="B478" s="16"/>
       <c r="E478" s="2"/>
     </row>
     <row r="479" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B479" s="17"/>
+      <c r="B479" s="16"/>
       <c r="E479" s="2"/>
     </row>
     <row r="480" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B480" s="17"/>
+      <c r="B480" s="16"/>
       <c r="E480" s="2"/>
     </row>
     <row r="481" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B481" s="17"/>
+      <c r="B481" s="16"/>
       <c r="E481" s="2"/>
     </row>
     <row r="482" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B482" s="17"/>
+      <c r="B482" s="16"/>
       <c r="E482" s="2"/>
     </row>
     <row r="483" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B483" s="17"/>
+      <c r="B483" s="16"/>
       <c r="E483" s="2"/>
     </row>
     <row r="484" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B484" s="17"/>
+      <c r="B484" s="16"/>
       <c r="E484" s="2"/>
     </row>
     <row r="485" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B485" s="17"/>
+      <c r="B485" s="16"/>
       <c r="E485" s="2"/>
     </row>
     <row r="486" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B486" s="17"/>
+      <c r="B486" s="16"/>
       <c r="E486" s="2"/>
     </row>
     <row r="487" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B487" s="17"/>
+      <c r="B487" s="16"/>
       <c r="E487" s="2"/>
     </row>
     <row r="488" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B488" s="17"/>
+      <c r="B488" s="16"/>
       <c r="E488" s="2"/>
     </row>
     <row r="489" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B489" s="17"/>
+      <c r="B489" s="16"/>
       <c r="E489" s="2"/>
     </row>
     <row r="490" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B490" s="17"/>
+      <c r="B490" s="16"/>
       <c r="E490" s="2"/>
     </row>
     <row r="491" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B491" s="17"/>
+      <c r="B491" s="16"/>
       <c r="E491" s="2"/>
     </row>
     <row r="492" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B492" s="17"/>
+      <c r="B492" s="16"/>
       <c r="E492" s="2"/>
     </row>
     <row r="493" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B493" s="17"/>
+      <c r="B493" s="16"/>
       <c r="E493" s="2"/>
     </row>
     <row r="494" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B494" s="17"/>
+      <c r="B494" s="16"/>
       <c r="E494" s="2"/>
     </row>
     <row r="495" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B495" s="17"/>
+      <c r="B495" s="16"/>
       <c r="E495" s="2"/>
     </row>
     <row r="496" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B496" s="17"/>
+      <c r="B496" s="16"/>
       <c r="E496" s="2"/>
     </row>
     <row r="497" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B497" s="17"/>
+      <c r="B497" s="16"/>
       <c r="E497" s="2"/>
     </row>
     <row r="498" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B498" s="17"/>
+      <c r="B498" s="16"/>
       <c r="E498" s="2"/>
     </row>
     <row r="499" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B499" s="17"/>
+      <c r="B499" s="16"/>
       <c r="E499" s="2"/>
     </row>
     <row r="500" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B500" s="17"/>
+      <c r="B500" s="16"/>
       <c r="E500" s="2"/>
     </row>
     <row r="501" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B501" s="17"/>
+      <c r="B501" s="16"/>
       <c r="E501" s="2"/>
     </row>
     <row r="502" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B502" s="17"/>
+      <c r="B502" s="16"/>
       <c r="E502" s="2"/>
     </row>
     <row r="503" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B503" s="17"/>
+      <c r="B503" s="16"/>
       <c r="E503" s="2"/>
     </row>
     <row r="504" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B504" s="17"/>
+      <c r="B504" s="16"/>
       <c r="E504" s="2"/>
     </row>
     <row r="505" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B505" s="17"/>
+      <c r="B505" s="16"/>
       <c r="E505" s="2"/>
     </row>
     <row r="506" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B506" s="17"/>
+      <c r="B506" s="16"/>
       <c r="E506" s="2"/>
     </row>
     <row r="507" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B507" s="17"/>
+      <c r="B507" s="16"/>
       <c r="E507" s="2"/>
     </row>
     <row r="508" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B508" s="17"/>
+      <c r="B508" s="16"/>
       <c r="E508" s="2"/>
     </row>
     <row r="509" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B509" s="17"/>
+      <c r="B509" s="16"/>
       <c r="E509" s="2"/>
     </row>
     <row r="510" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B510" s="17"/>
+      <c r="B510" s="16"/>
       <c r="E510" s="2"/>
     </row>
     <row r="511" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B511" s="17"/>
+      <c r="B511" s="16"/>
       <c r="E511" s="2"/>
     </row>
     <row r="512" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B512" s="17"/>
+      <c r="B512" s="16"/>
       <c r="E512" s="2"/>
     </row>
     <row r="513" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B513" s="17"/>
+      <c r="B513" s="16"/>
       <c r="E513" s="2"/>
     </row>
     <row r="514" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B514" s="17"/>
+      <c r="B514" s="16"/>
       <c r="E514" s="2"/>
     </row>
     <row r="515" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B515" s="17"/>
+      <c r="B515" s="16"/>
       <c r="E515" s="2"/>
     </row>
     <row r="516" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B516" s="17"/>
+      <c r="B516" s="16"/>
       <c r="E516" s="2"/>
     </row>
     <row r="517" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B517" s="17"/>
+      <c r="B517" s="16"/>
       <c r="E517" s="2"/>
     </row>
     <row r="518" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B518" s="17"/>
+      <c r="B518" s="16"/>
       <c r="E518" s="2"/>
     </row>
     <row r="519" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B519" s="17"/>
+      <c r="B519" s="16"/>
       <c r="E519" s="2"/>
     </row>
     <row r="520" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B520" s="17"/>
+      <c r="B520" s="16"/>
       <c r="E520" s="2"/>
     </row>
     <row r="521" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B521" s="17"/>
+      <c r="B521" s="16"/>
       <c r="E521" s="2"/>
     </row>
     <row r="522" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B522" s="17"/>
+      <c r="B522" s="16"/>
       <c r="E522" s="2"/>
     </row>
     <row r="523" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B523" s="17"/>
+      <c r="B523" s="16"/>
       <c r="E523" s="2"/>
     </row>
     <row r="524" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B524" s="17"/>
+      <c r="B524" s="16"/>
       <c r="E524" s="2"/>
     </row>
     <row r="525" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B525" s="17"/>
+      <c r="B525" s="16"/>
       <c r="E525" s="2"/>
     </row>
     <row r="526" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B526" s="17"/>
+      <c r="B526" s="16"/>
       <c r="E526" s="2"/>
     </row>
     <row r="527" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B527" s="17"/>
+      <c r="B527" s="16"/>
       <c r="E527" s="2"/>
     </row>
     <row r="528" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B528" s="17"/>
+      <c r="B528" s="16"/>
       <c r="E528" s="2"/>
     </row>
     <row r="529" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B529" s="17"/>
+      <c r="B529" s="16"/>
       <c r="E529" s="2"/>
     </row>
     <row r="530" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B530" s="17"/>
+      <c r="B530" s="16"/>
       <c r="E530" s="2"/>
     </row>
     <row r="531" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B531" s="17"/>
+      <c r="B531" s="16"/>
       <c r="E531" s="2"/>
     </row>
     <row r="532" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B532" s="17"/>
+      <c r="B532" s="16"/>
       <c r="E532" s="2"/>
     </row>
     <row r="533" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B533" s="17"/>
+      <c r="B533" s="16"/>
       <c r="E533" s="2"/>
     </row>
     <row r="534" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B534" s="17"/>
+      <c r="B534" s="16"/>
       <c r="E534" s="2"/>
     </row>
     <row r="535" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B535" s="17"/>
+      <c r="B535" s="16"/>
       <c r="E535" s="2"/>
     </row>
     <row r="536" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B536" s="17"/>
+      <c r="B536" s="16"/>
       <c r="E536" s="2"/>
     </row>
     <row r="537" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B537" s="17"/>
+      <c r="B537" s="16"/>
       <c r="E537" s="2"/>
     </row>
     <row r="538" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B538" s="17"/>
+      <c r="B538" s="16"/>
       <c r="E538" s="2"/>
     </row>
     <row r="539" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B539" s="17"/>
+      <c r="B539" s="16"/>
       <c r="E539" s="2"/>
     </row>
     <row r="540" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B540" s="17"/>
+      <c r="B540" s="16"/>
       <c r="E540" s="2"/>
     </row>
     <row r="541" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B541" s="17"/>
+      <c r="B541" s="16"/>
       <c r="E541" s="2"/>
     </row>
     <row r="542" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B542" s="17"/>
+      <c r="B542" s="16"/>
       <c r="E542" s="2"/>
     </row>
     <row r="543" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B543" s="17"/>
+      <c r="B543" s="16"/>
       <c r="E543" s="2"/>
     </row>
     <row r="544" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B544" s="17"/>
+      <c r="B544" s="16"/>
       <c r="E544" s="2"/>
     </row>
     <row r="545" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B545" s="17"/>
+      <c r="B545" s="16"/>
       <c r="E545" s="2"/>
     </row>
     <row r="546" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B546" s="17"/>
+      <c r="B546" s="16"/>
       <c r="E546" s="2"/>
     </row>
     <row r="547" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B547" s="17"/>
+      <c r="B547" s="16"/>
       <c r="E547" s="2"/>
     </row>
     <row r="548" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B548" s="17"/>
+      <c r="B548" s="16"/>
       <c r="E548" s="2"/>
     </row>
     <row r="549" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B549" s="17"/>
+      <c r="B549" s="16"/>
       <c r="E549" s="2"/>
     </row>
     <row r="550" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B550" s="17"/>
+      <c r="B550" s="16"/>
       <c r="E550" s="2"/>
     </row>
     <row r="551" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B551" s="17"/>
+      <c r="B551" s="16"/>
       <c r="E551" s="2"/>
     </row>
     <row r="552" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B552" s="17"/>
+      <c r="B552" s="16"/>
       <c r="E552" s="2"/>
     </row>
     <row r="553" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B553" s="17"/>
+      <c r="B553" s="16"/>
       <c r="E553" s="2"/>
     </row>
     <row r="554" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B554" s="17"/>
+      <c r="B554" s="16"/>
       <c r="E554" s="2"/>
     </row>
     <row r="555" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B555" s="17"/>
+      <c r="B555" s="16"/>
       <c r="E555" s="2"/>
     </row>
     <row r="556" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B556" s="17"/>
+      <c r="B556" s="16"/>
       <c r="E556" s="2"/>
     </row>
     <row r="557" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B557" s="17"/>
+      <c r="B557" s="16"/>
       <c r="E557" s="2"/>
     </row>
     <row r="558" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B558" s="17"/>
+      <c r="B558" s="16"/>
       <c r="E558" s="2"/>
     </row>
     <row r="559" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B559" s="17"/>
+      <c r="B559" s="16"/>
       <c r="E559" s="2"/>
     </row>
     <row r="560" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B560" s="17"/>
+      <c r="B560" s="16"/>
       <c r="E560" s="2"/>
     </row>
     <row r="561" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B561" s="17"/>
+      <c r="B561" s="16"/>
       <c r="E561" s="2"/>
     </row>
     <row r="562" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B562" s="17"/>
+      <c r="B562" s="16"/>
       <c r="E562" s="2"/>
     </row>
     <row r="563" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B563" s="17"/>
+      <c r="B563" s="16"/>
       <c r="E563" s="2"/>
     </row>
     <row r="564" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B564" s="17"/>
+      <c r="B564" s="16"/>
       <c r="E564" s="2"/>
     </row>
     <row r="565" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B565" s="17"/>
+      <c r="B565" s="16"/>
       <c r="E565" s="2"/>
     </row>
     <row r="566" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B566" s="17"/>
+      <c r="B566" s="16"/>
       <c r="E566" s="2"/>
     </row>
     <row r="567" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B567" s="17"/>
+      <c r="B567" s="16"/>
       <c r="E567" s="2"/>
     </row>
     <row r="568" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B568" s="17"/>
+      <c r="B568" s="16"/>
       <c r="E568" s="2"/>
     </row>
     <row r="569" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B569" s="17"/>
+      <c r="B569" s="16"/>
       <c r="E569" s="2"/>
     </row>
     <row r="570" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B570" s="17"/>
+      <c r="B570" s="16"/>
       <c r="E570" s="2"/>
     </row>
     <row r="571" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B571" s="17"/>
+      <c r="B571" s="16"/>
       <c r="E571" s="2"/>
     </row>
     <row r="572" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B572" s="17"/>
+      <c r="B572" s="16"/>
       <c r="E572" s="2"/>
     </row>
     <row r="573" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B573" s="17"/>
+      <c r="B573" s="16"/>
       <c r="E573" s="2"/>
     </row>
     <row r="574" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B574" s="17"/>
+      <c r="B574" s="16"/>
       <c r="E574" s="2"/>
     </row>
     <row r="575" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B575" s="17"/>
+      <c r="B575" s="16"/>
       <c r="E575" s="2"/>
     </row>
     <row r="576" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B576" s="17"/>
+      <c r="B576" s="16"/>
       <c r="E576" s="2"/>
     </row>
     <row r="577" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B577" s="17"/>
+      <c r="B577" s="16"/>
       <c r="E577" s="2"/>
     </row>
     <row r="578" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B578" s="17"/>
+      <c r="B578" s="16"/>
       <c r="E578" s="2"/>
     </row>
     <row r="579" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B579" s="17"/>
+      <c r="B579" s="16"/>
       <c r="E579" s="2"/>
     </row>
     <row r="580" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B580" s="17"/>
+      <c r="B580" s="16"/>
       <c r="E580" s="2"/>
     </row>
     <row r="581" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B581" s="17"/>
+      <c r="B581" s="16"/>
       <c r="E581" s="2"/>
     </row>
     <row r="582" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B582" s="17"/>
+      <c r="B582" s="16"/>
       <c r="E582" s="2"/>
     </row>
     <row r="583" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B583" s="17"/>
+      <c r="B583" s="16"/>
       <c r="E583" s="2"/>
     </row>
     <row r="584" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B584" s="17"/>
+      <c r="B584" s="16"/>
       <c r="E584" s="2"/>
     </row>
     <row r="585" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B585" s="17"/>
+      <c r="B585" s="16"/>
       <c r="E585" s="2"/>
     </row>
     <row r="586" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B586" s="17"/>
+      <c r="B586" s="16"/>
       <c r="E586" s="2"/>
     </row>
     <row r="587" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B587" s="17"/>
+      <c r="B587" s="16"/>
       <c r="E587" s="2"/>
     </row>
     <row r="588" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B588" s="17"/>
+      <c r="B588" s="16"/>
       <c r="E588" s="2"/>
     </row>
     <row r="589" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B589" s="17"/>
+      <c r="B589" s="16"/>
       <c r="E589" s="2"/>
     </row>
     <row r="590" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B590" s="17"/>
+      <c r="B590" s="16"/>
       <c r="E590" s="2"/>
     </row>
     <row r="591" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B591" s="17"/>
+      <c r="B591" s="16"/>
       <c r="E591" s="2"/>
     </row>
     <row r="592" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B592" s="17"/>
+      <c r="B592" s="16"/>
       <c r="E592" s="2"/>
     </row>
     <row r="593" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B593" s="17"/>
+      <c r="B593" s="16"/>
       <c r="E593" s="2"/>
     </row>
     <row r="594" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B594" s="17"/>
+      <c r="B594" s="16"/>
       <c r="E594" s="2"/>
     </row>
     <row r="595" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B595" s="17"/>
+      <c r="B595" s="16"/>
       <c r="E595" s="2"/>
     </row>
     <row r="596" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B596" s="17"/>
+      <c r="B596" s="16"/>
       <c r="E596" s="2"/>
     </row>
     <row r="597" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B597" s="17"/>
+      <c r="B597" s="16"/>
       <c r="E597" s="2"/>
     </row>
     <row r="598" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B598" s="17"/>
+      <c r="B598" s="16"/>
       <c r="E598" s="2"/>
     </row>
     <row r="599" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B599" s="17"/>
+      <c r="B599" s="16"/>
       <c r="E599" s="2"/>
     </row>
     <row r="600" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B600" s="17"/>
+      <c r="B600" s="16"/>
       <c r="E600" s="2"/>
     </row>
     <row r="601" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B601" s="17"/>
+      <c r="B601" s="16"/>
       <c r="E601" s="2"/>
     </row>
     <row r="602" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B602" s="17"/>
+      <c r="B602" s="16"/>
       <c r="E602" s="2"/>
     </row>
     <row r="603" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B603" s="17"/>
+      <c r="B603" s="16"/>
       <c r="E603" s="2"/>
     </row>
     <row r="604" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B604" s="17"/>
+      <c r="B604" s="16"/>
       <c r="E604" s="2"/>
     </row>
     <row r="605" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B605" s="17"/>
+      <c r="B605" s="16"/>
       <c r="E605" s="2"/>
     </row>
     <row r="606" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B606" s="17"/>
+      <c r="B606" s="16"/>
       <c r="E606" s="2"/>
     </row>
     <row r="607" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B607" s="17"/>
+      <c r="B607" s="16"/>
       <c r="E607" s="2"/>
     </row>
     <row r="608" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B608" s="17"/>
+      <c r="B608" s="16"/>
       <c r="E608" s="2"/>
     </row>
     <row r="609" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B609" s="17"/>
+      <c r="B609" s="16"/>
       <c r="E609" s="2"/>
     </row>
     <row r="610" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B610" s="17"/>
+      <c r="B610" s="16"/>
       <c r="E610" s="2"/>
     </row>
     <row r="611" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B611" s="17"/>
+      <c r="B611" s="16"/>
       <c r="E611" s="2"/>
     </row>
     <row r="612" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B612" s="17"/>
+      <c r="B612" s="16"/>
       <c r="E612" s="2"/>
     </row>
     <row r="613" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B613" s="17"/>
+      <c r="B613" s="16"/>
       <c r="E613" s="2"/>
     </row>
     <row r="614" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B614" s="17"/>
+      <c r="B614" s="16"/>
       <c r="E614" s="2"/>
     </row>
     <row r="615" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B615" s="17"/>
+      <c r="B615" s="16"/>
       <c r="E615" s="2"/>
     </row>
     <row r="616" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B616" s="17"/>
+      <c r="B616" s="16"/>
       <c r="E616" s="2"/>
     </row>
     <row r="617" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B617" s="17"/>
+      <c r="B617" s="16"/>
       <c r="E617" s="2"/>
     </row>
     <row r="618" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B618" s="17"/>
+      <c r="B618" s="16"/>
       <c r="E618" s="2"/>
     </row>
     <row r="619" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B619" s="17"/>
+      <c r="B619" s="16"/>
       <c r="E619" s="2"/>
     </row>
     <row r="620" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B620" s="17"/>
+      <c r="B620" s="16"/>
       <c r="E620" s="2"/>
     </row>
     <row r="621" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B621" s="17"/>
+      <c r="B621" s="16"/>
       <c r="E621" s="2"/>
     </row>
     <row r="622" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B622" s="17"/>
+      <c r="B622" s="16"/>
       <c r="E622" s="2"/>
     </row>
     <row r="623" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B623" s="17"/>
+      <c r="B623" s="16"/>
       <c r="E623" s="2"/>
     </row>
     <row r="624" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B624" s="17"/>
+      <c r="B624" s="16"/>
       <c r="E624" s="2"/>
     </row>
     <row r="625" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B625" s="17"/>
+      <c r="B625" s="16"/>
       <c r="E625" s="2"/>
     </row>
     <row r="626" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B626" s="17"/>
+      <c r="B626" s="16"/>
       <c r="E626" s="2"/>
     </row>
     <row r="627" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B627" s="17"/>
+      <c r="B627" s="16"/>
       <c r="E627" s="2"/>
     </row>
     <row r="628" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B628" s="17"/>
+      <c r="B628" s="16"/>
       <c r="E628" s="2"/>
     </row>
     <row r="629" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B629" s="17"/>
+      <c r="B629" s="16"/>
       <c r="E629" s="2"/>
     </row>
     <row r="630" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B630" s="17"/>
+      <c r="B630" s="16"/>
       <c r="E630" s="2"/>
     </row>
     <row r="631" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B631" s="17"/>
+      <c r="B631" s="16"/>
       <c r="E631" s="2"/>
     </row>
     <row r="632" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B632" s="17"/>
+      <c r="B632" s="16"/>
       <c r="E632" s="2"/>
     </row>
     <row r="633" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B633" s="17"/>
+      <c r="B633" s="16"/>
       <c r="E633" s="2"/>
     </row>
     <row r="634" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B634" s="17"/>
+      <c r="B634" s="16"/>
       <c r="E634" s="2"/>
     </row>
     <row r="635" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B635" s="17"/>
+      <c r="B635" s="16"/>
       <c r="E635" s="2"/>
     </row>
     <row r="636" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B636" s="17"/>
+      <c r="B636" s="16"/>
       <c r="E636" s="2"/>
     </row>
     <row r="637" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B637" s="17"/>
+      <c r="B637" s="16"/>
       <c r="E637" s="2"/>
     </row>
     <row r="638" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B638" s="17"/>
+      <c r="B638" s="16"/>
       <c r="E638" s="2"/>
     </row>
     <row r="639" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B639" s="17"/>
+      <c r="B639" s="16"/>
       <c r="E639" s="2"/>
     </row>
     <row r="640" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B640" s="17"/>
+      <c r="B640" s="16"/>
       <c r="E640" s="2"/>
     </row>
     <row r="641" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B641" s="17"/>
+      <c r="B641" s="16"/>
       <c r="E641" s="2"/>
     </row>
     <row r="642" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B642" s="17"/>
+      <c r="B642" s="16"/>
       <c r="E642" s="2"/>
     </row>
     <row r="643" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B643" s="17"/>
+      <c r="B643" s="16"/>
       <c r="E643" s="2"/>
     </row>
     <row r="644" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B644" s="17"/>
+      <c r="B644" s="16"/>
       <c r="E644" s="2"/>
     </row>
     <row r="645" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B645" s="17"/>
+      <c r="B645" s="16"/>
       <c r="E645" s="2"/>
     </row>
     <row r="646" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B646" s="17"/>
+      <c r="B646" s="16"/>
       <c r="E646" s="2"/>
     </row>
     <row r="647" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B647" s="17"/>
+      <c r="B647" s="16"/>
       <c r="E647" s="2"/>
     </row>
     <row r="648" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B648" s="17"/>
+      <c r="B648" s="16"/>
       <c r="E648" s="2"/>
     </row>
     <row r="649" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B649" s="17"/>
+      <c r="B649" s="16"/>
       <c r="E649" s="2"/>
     </row>
     <row r="650" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B650" s="17"/>
+      <c r="B650" s="16"/>
       <c r="E650" s="2"/>
     </row>
     <row r="651" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B651" s="17"/>
+      <c r="B651" s="16"/>
       <c r="E651" s="2"/>
     </row>
     <row r="652" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B652" s="17"/>
+      <c r="B652" s="16"/>
       <c r="E652" s="2"/>
     </row>
     <row r="653" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B653" s="17"/>
+      <c r="B653" s="16"/>
       <c r="E653" s="2"/>
     </row>
     <row r="654" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B654" s="17"/>
+      <c r="B654" s="16"/>
       <c r="E654" s="2"/>
     </row>
     <row r="655" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B655" s="17"/>
+      <c r="B655" s="16"/>
       <c r="E655" s="2"/>
     </row>
     <row r="656" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B656" s="17"/>
+      <c r="B656" s="16"/>
       <c r="E656" s="2"/>
     </row>
     <row r="657" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B657" s="17"/>
+      <c r="B657" s="16"/>
       <c r="E657" s="2"/>
     </row>
     <row r="658" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B658" s="17"/>
+      <c r="B658" s="16"/>
       <c r="E658" s="2"/>
     </row>
     <row r="659" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B659" s="17"/>
+      <c r="B659" s="16"/>
       <c r="E659" s="2"/>
     </row>
     <row r="660" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B660" s="17"/>
+      <c r="B660" s="16"/>
       <c r="E660" s="2"/>
     </row>
     <row r="661" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B661" s="17"/>
+      <c r="B661" s="16"/>
       <c r="E661" s="2"/>
     </row>
     <row r="662" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B662" s="17"/>
+      <c r="B662" s="16"/>
       <c r="E662" s="2"/>
     </row>
     <row r="663" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B663" s="17"/>
+      <c r="B663" s="16"/>
       <c r="E663" s="2"/>
     </row>
     <row r="664" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B664" s="17"/>
+      <c r="B664" s="16"/>
       <c r="E664" s="2"/>
     </row>
     <row r="665" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B665" s="17"/>
+      <c r="B665" s="16"/>
       <c r="E665" s="2"/>
     </row>
     <row r="666" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B666" s="17"/>
+      <c r="B666" s="16"/>
       <c r="E666" s="2"/>
     </row>
     <row r="667" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B667" s="17"/>
+      <c r="B667" s="16"/>
       <c r="E667" s="2"/>
     </row>
     <row r="668" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B668" s="17"/>
+      <c r="B668" s="16"/>
       <c r="E668" s="2"/>
     </row>
     <row r="669" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B669" s="17"/>
+      <c r="B669" s="16"/>
       <c r="E669" s="2"/>
     </row>
     <row r="670" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B670" s="17"/>
+      <c r="B670" s="16"/>
       <c r="E670" s="2"/>
     </row>
     <row r="671" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B671" s="17"/>
+      <c r="B671" s="16"/>
       <c r="E671" s="2"/>
     </row>
     <row r="672" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B672" s="17"/>
+      <c r="B672" s="16"/>
       <c r="E672" s="2"/>
     </row>
     <row r="673" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B673" s="17"/>
+      <c r="B673" s="16"/>
       <c r="E673" s="2"/>
     </row>
     <row r="674" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B674" s="17"/>
+      <c r="B674" s="16"/>
       <c r="E674" s="2"/>
     </row>
     <row r="675" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B675" s="17"/>
+      <c r="B675" s="16"/>
       <c r="E675" s="2"/>
     </row>
     <row r="676" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B676" s="17"/>
+      <c r="B676" s="16"/>
       <c r="E676" s="2"/>
     </row>
     <row r="677" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B677" s="17"/>
+      <c r="B677" s="16"/>
       <c r="E677" s="2"/>
     </row>
     <row r="678" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B678" s="17"/>
+      <c r="B678" s="16"/>
       <c r="E678" s="2"/>
     </row>
     <row r="679" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B679" s="17"/>
+      <c r="B679" s="16"/>
       <c r="E679" s="2"/>
     </row>
     <row r="680" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B680" s="17"/>
+      <c r="B680" s="16"/>
       <c r="E680" s="2"/>
     </row>
     <row r="681" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B681" s="17"/>
+      <c r="B681" s="16"/>
       <c r="E681" s="2"/>
     </row>
     <row r="682" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B682" s="17"/>
+      <c r="B682" s="16"/>
       <c r="E682" s="2"/>
     </row>
     <row r="683" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B683" s="17"/>
+      <c r="B683" s="16"/>
       <c r="E683" s="2"/>
     </row>
     <row r="684" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B684" s="17"/>
+      <c r="B684" s="16"/>
       <c r="E684" s="2"/>
     </row>
     <row r="685" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B685" s="17"/>
+      <c r="B685" s="16"/>
       <c r="E685" s="2"/>
     </row>
     <row r="686" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B686" s="17"/>
+      <c r="B686" s="16"/>
       <c r="E686" s="2"/>
     </row>
     <row r="687" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B687" s="17"/>
+      <c r="B687" s="16"/>
       <c r="E687" s="2"/>
     </row>
     <row r="688" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B688" s="17"/>
+      <c r="B688" s="16"/>
       <c r="E688" s="2"/>
     </row>
     <row r="689" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B689" s="17"/>
+      <c r="B689" s="16"/>
       <c r="E689" s="2"/>
     </row>
     <row r="690" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B690" s="17"/>
+      <c r="B690" s="16"/>
       <c r="E690" s="2"/>
     </row>
     <row r="691" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B691" s="17"/>
+      <c r="B691" s="16"/>
       <c r="E691" s="2"/>
     </row>
     <row r="692" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B692" s="17"/>
+      <c r="B692" s="16"/>
       <c r="E692" s="2"/>
     </row>
     <row r="693" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B693" s="17"/>
+      <c r="B693" s="16"/>
       <c r="E693" s="2"/>
     </row>
     <row r="694" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B694" s="17"/>
+      <c r="B694" s="16"/>
       <c r="E694" s="2"/>
     </row>
     <row r="695" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B695" s="17"/>
+      <c r="B695" s="16"/>
       <c r="E695" s="2"/>
     </row>
     <row r="696" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B696" s="17"/>
+      <c r="B696" s="16"/>
       <c r="E696" s="2"/>
     </row>
     <row r="697" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B697" s="17"/>
+      <c r="B697" s="16"/>
       <c r="E697" s="2"/>
     </row>
     <row r="698" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B698" s="17"/>
+      <c r="B698" s="16"/>
       <c r="E698" s="2"/>
     </row>
     <row r="699" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B699" s="17"/>
+      <c r="B699" s="16"/>
       <c r="E699" s="2"/>
     </row>
     <row r="700" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B700" s="17"/>
+      <c r="B700" s="16"/>
       <c r="E700" s="2"/>
     </row>
     <row r="701" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B701" s="17"/>
+      <c r="B701" s="16"/>
       <c r="E701" s="2"/>
     </row>
     <row r="702" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B702" s="17"/>
+      <c r="B702" s="16"/>
       <c r="E702" s="2"/>
     </row>
     <row r="703" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B703" s="17"/>
+      <c r="B703" s="16"/>
       <c r="E703" s="2"/>
     </row>
     <row r="704" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B704" s="17"/>
+      <c r="B704" s="16"/>
       <c r="E704" s="2"/>
     </row>
     <row r="705" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B705" s="17"/>
+      <c r="B705" s="16"/>
       <c r="E705" s="2"/>
     </row>
     <row r="706" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B706" s="17"/>
+      <c r="B706" s="16"/>
       <c r="E706" s="2"/>
     </row>
     <row r="707" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B707" s="17"/>
+      <c r="B707" s="16"/>
       <c r="E707" s="2"/>
     </row>
     <row r="708" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B708" s="17"/>
+      <c r="B708" s="16"/>
       <c r="E708" s="2"/>
     </row>
     <row r="709" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B709" s="17"/>
+      <c r="B709" s="16"/>
       <c r="E709" s="2"/>
     </row>
     <row r="710" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B710" s="17"/>
+      <c r="B710" s="16"/>
       <c r="E710" s="2"/>
     </row>
     <row r="711" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B711" s="17"/>
+      <c r="B711" s="16"/>
       <c r="E711" s="2"/>
     </row>
     <row r="712" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B712" s="17"/>
+      <c r="B712" s="16"/>
       <c r="E712" s="2"/>
     </row>
     <row r="713" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B713" s="17"/>
+      <c r="B713" s="16"/>
       <c r="E713" s="2"/>
     </row>
     <row r="714" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B714" s="17"/>
+      <c r="B714" s="16"/>
       <c r="E714" s="2"/>
     </row>
     <row r="715" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B715" s="17"/>
+      <c r="B715" s="16"/>
       <c r="E715" s="2"/>
     </row>
     <row r="716" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B716" s="17"/>
+      <c r="B716" s="16"/>
       <c r="E716" s="2"/>
     </row>
     <row r="717" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B717" s="17"/>
+      <c r="B717" s="16"/>
       <c r="E717" s="2"/>
     </row>
     <row r="718" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B718" s="17"/>
+      <c r="B718" s="16"/>
       <c r="E718" s="2"/>
     </row>
     <row r="719" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B719" s="17"/>
+      <c r="B719" s="16"/>
       <c r="E719" s="2"/>
     </row>
     <row r="720" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B720" s="17"/>
+      <c r="B720" s="16"/>
       <c r="E720" s="2"/>
     </row>
     <row r="721" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B721" s="17"/>
+      <c r="B721" s="16"/>
       <c r="E721" s="2"/>
     </row>
     <row r="722" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B722" s="17"/>
+      <c r="B722" s="16"/>
       <c r="E722" s="2"/>
     </row>
     <row r="723" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B723" s="17"/>
+      <c r="B723" s="16"/>
       <c r="E723" s="2"/>
     </row>
     <row r="724" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B724" s="17"/>
+      <c r="B724" s="16"/>
       <c r="E724" s="2"/>
     </row>
     <row r="725" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B725" s="17"/>
+      <c r="B725" s="16"/>
       <c r="E725" s="2"/>
     </row>
     <row r="726" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B726" s="17"/>
+      <c r="B726" s="16"/>
       <c r="E726" s="2"/>
     </row>
     <row r="727" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B727" s="17"/>
+      <c r="B727" s="16"/>
       <c r="E727" s="2"/>
     </row>
     <row r="728" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B728" s="17"/>
+      <c r="B728" s="16"/>
       <c r="E728" s="2"/>
     </row>
     <row r="729" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B729" s="17"/>
+      <c r="B729" s="16"/>
       <c r="E729" s="2"/>
     </row>
     <row r="730" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B730" s="17"/>
+      <c r="B730" s="16"/>
       <c r="E730" s="2"/>
     </row>
     <row r="731" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B731" s="17"/>
+      <c r="B731" s="16"/>
       <c r="E731" s="2"/>
     </row>
     <row r="732" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B732" s="17"/>
+      <c r="B732" s="16"/>
       <c r="E732" s="2"/>
     </row>
     <row r="733" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B733" s="17"/>
+      <c r="B733" s="16"/>
       <c r="E733" s="2"/>
     </row>
     <row r="734" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B734" s="17"/>
+      <c r="B734" s="16"/>
       <c r="E734" s="2"/>
     </row>
     <row r="735" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B735" s="17"/>
+      <c r="B735" s="16"/>
       <c r="E735" s="2"/>
     </row>
     <row r="736" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B736" s="17"/>
+      <c r="B736" s="16"/>
       <c r="E736" s="2"/>
     </row>
     <row r="737" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B737" s="17"/>
+      <c r="B737" s="16"/>
       <c r="E737" s="2"/>
     </row>
     <row r="738" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B738" s="17"/>
+      <c r="B738" s="16"/>
       <c r="E738" s="2"/>
     </row>
     <row r="739" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B739" s="17"/>
+      <c r="B739" s="16"/>
       <c r="E739" s="2"/>
     </row>
     <row r="740" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B740" s="17"/>
+      <c r="B740" s="16"/>
       <c r="E740" s="2"/>
     </row>
     <row r="741" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B741" s="17"/>
+      <c r="B741" s="16"/>
       <c r="E741" s="2"/>
     </row>
     <row r="742" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B742" s="17"/>
+      <c r="B742" s="16"/>
       <c r="E742" s="2"/>
     </row>
     <row r="743" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B743" s="17"/>
+      <c r="B743" s="16"/>
       <c r="E743" s="2"/>
     </row>
     <row r="744" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B744" s="17"/>
+      <c r="B744" s="16"/>
       <c r="E744" s="2"/>
     </row>
     <row r="745" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B745" s="17"/>
+      <c r="B745" s="16"/>
       <c r="E745" s="2"/>
     </row>
     <row r="746" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B746" s="17"/>
+      <c r="B746" s="16"/>
       <c r="E746" s="2"/>
     </row>
     <row r="747" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B747" s="17"/>
+      <c r="B747" s="16"/>
       <c r="E747" s="2"/>
     </row>
     <row r="748" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B748" s="17"/>
+      <c r="B748" s="16"/>
       <c r="E748" s="2"/>
     </row>
     <row r="749" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B749" s="17"/>
+      <c r="B749" s="16"/>
       <c r="E749" s="2"/>
     </row>
     <row r="750" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B750" s="17"/>
+      <c r="B750" s="16"/>
       <c r="E750" s="2"/>
     </row>
     <row r="751" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B751" s="17"/>
+      <c r="B751" s="16"/>
       <c r="E751" s="2"/>
     </row>
     <row r="752" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B752" s="17"/>
+      <c r="B752" s="16"/>
       <c r="E752" s="2"/>
     </row>
     <row r="753" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B753" s="17"/>
+      <c r="B753" s="16"/>
       <c r="E753" s="2"/>
     </row>
     <row r="754" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B754" s="17"/>
+      <c r="B754" s="16"/>
       <c r="E754" s="2"/>
     </row>
     <row r="755" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B755" s="17"/>
+      <c r="B755" s="16"/>
       <c r="E755" s="2"/>
     </row>
     <row r="756" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B756" s="17"/>
+      <c r="B756" s="16"/>
       <c r="E756" s="2"/>
     </row>
     <row r="757" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B757" s="17"/>
+      <c r="B757" s="16"/>
       <c r="E757" s="2"/>
     </row>
     <row r="758" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B758" s="17"/>
+      <c r="B758" s="16"/>
       <c r="E758" s="2"/>
     </row>
     <row r="759" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B759" s="17"/>
+      <c r="B759" s="16"/>
       <c r="E759" s="2"/>
     </row>
     <row r="760" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B760" s="17"/>
+      <c r="B760" s="16"/>
       <c r="E760" s="2"/>
     </row>
     <row r="761" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B761" s="17"/>
+      <c r="B761" s="16"/>
       <c r="E761" s="2"/>
     </row>
     <row r="762" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B762" s="17"/>
+      <c r="B762" s="16"/>
       <c r="E762" s="2"/>
     </row>
     <row r="763" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B763" s="17"/>
+      <c r="B763" s="16"/>
       <c r="E763" s="2"/>
     </row>
     <row r="764" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B764" s="17"/>
+      <c r="B764" s="16"/>
       <c r="E764" s="2"/>
     </row>
     <row r="765" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B765" s="17"/>
+      <c r="B765" s="16"/>
       <c r="E765" s="2"/>
     </row>
     <row r="766" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B766" s="17"/>
+      <c r="B766" s="16"/>
       <c r="E766" s="2"/>
     </row>
     <row r="767" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B767" s="17"/>
+      <c r="B767" s="16"/>
       <c r="E767" s="2"/>
     </row>
     <row r="768" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B768" s="17"/>
+      <c r="B768" s="16"/>
       <c r="E768" s="2"/>
     </row>
     <row r="769" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B769" s="17"/>
+      <c r="B769" s="16"/>
       <c r="E769" s="2"/>
     </row>
     <row r="770" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B770" s="17"/>
+      <c r="B770" s="16"/>
       <c r="E770" s="2"/>
     </row>
     <row r="771" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B771" s="17"/>
+      <c r="B771" s="16"/>
       <c r="E771" s="2"/>
     </row>
     <row r="772" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B772" s="17"/>
+      <c r="B772" s="16"/>
       <c r="E772" s="2"/>
     </row>
     <row r="773" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B773" s="17"/>
+      <c r="B773" s="16"/>
       <c r="E773" s="2"/>
     </row>
     <row r="774" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B774" s="17"/>
+      <c r="B774" s="16"/>
       <c r="E774" s="2"/>
     </row>
     <row r="775" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B775" s="17"/>
+      <c r="B775" s="16"/>
       <c r="E775" s="2"/>
     </row>
     <row r="776" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B776" s="17"/>
+      <c r="B776" s="16"/>
       <c r="E776" s="2"/>
     </row>
     <row r="777" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B777" s="17"/>
+      <c r="B777" s="16"/>
       <c r="E777" s="2"/>
     </row>
     <row r="778" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B778" s="17"/>
+      <c r="B778" s="16"/>
       <c r="E778" s="2"/>
     </row>
     <row r="779" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B779" s="17"/>
+      <c r="B779" s="16"/>
       <c r="E779" s="2"/>
     </row>
     <row r="780" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B780" s="17"/>
+      <c r="B780" s="16"/>
       <c r="E780" s="2"/>
     </row>
     <row r="781" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B781" s="17"/>
+      <c r="B781" s="16"/>
       <c r="E781" s="2"/>
     </row>
     <row r="782" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B782" s="17"/>
+      <c r="B782" s="16"/>
       <c r="E782" s="2"/>
     </row>
     <row r="783" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B783" s="17"/>
+      <c r="B783" s="16"/>
       <c r="E783" s="2"/>
     </row>
     <row r="784" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B784" s="17"/>
+      <c r="B784" s="16"/>
       <c r="E784" s="2"/>
     </row>
     <row r="785" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B785" s="17"/>
+      <c r="B785" s="16"/>
       <c r="E785" s="2"/>
     </row>
     <row r="786" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B786" s="17"/>
+      <c r="B786" s="16"/>
       <c r="E786" s="2"/>
     </row>
     <row r="787" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B787" s="17"/>
+      <c r="B787" s="16"/>
       <c r="E787" s="2"/>
     </row>
     <row r="788" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B788" s="17"/>
+      <c r="B788" s="16"/>
       <c r="E788" s="2"/>
     </row>
     <row r="789" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B789" s="17"/>
+      <c r="B789" s="16"/>
       <c r="E789" s="2"/>
     </row>
     <row r="790" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B790" s="17"/>
+      <c r="B790" s="16"/>
       <c r="E790" s="2"/>
     </row>
     <row r="791" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B791" s="17"/>
+      <c r="B791" s="16"/>
       <c r="E791" s="2"/>
     </row>
     <row r="792" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B792" s="17"/>
+      <c r="B792" s="16"/>
       <c r="E792" s="2"/>
     </row>
     <row r="793" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B793" s="17"/>
+      <c r="B793" s="16"/>
       <c r="E793" s="2"/>
     </row>
     <row r="794" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B794" s="17"/>
+      <c r="B794" s="16"/>
       <c r="E794" s="2"/>
     </row>
     <row r="795" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B795" s="17"/>
+      <c r="B795" s="16"/>
       <c r="E795" s="2"/>
     </row>
     <row r="796" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B796" s="17"/>
+      <c r="B796" s="16"/>
       <c r="E796" s="2"/>
     </row>
     <row r="797" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B797" s="17"/>
+      <c r="B797" s="16"/>
       <c r="E797" s="2"/>
     </row>
     <row r="798" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B798" s="17"/>
+      <c r="B798" s="16"/>
       <c r="E798" s="2"/>
     </row>
     <row r="799" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B799" s="17"/>
+      <c r="B799" s="16"/>
       <c r="E799" s="2"/>
     </row>
     <row r="800" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B800" s="17"/>
+      <c r="B800" s="16"/>
       <c r="E800" s="2"/>
     </row>
     <row r="801" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B801" s="17"/>
+      <c r="B801" s="16"/>
       <c r="E801" s="2"/>
     </row>
     <row r="802" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B802" s="17"/>
+      <c r="B802" s="16"/>
       <c r="E802" s="2"/>
     </row>
     <row r="803" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B803" s="17"/>
+      <c r="B803" s="16"/>
       <c r="E803" s="2"/>
     </row>
     <row r="804" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B804" s="17"/>
+      <c r="B804" s="16"/>
       <c r="E804" s="2"/>
     </row>
     <row r="805" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B805" s="17"/>
+      <c r="B805" s="16"/>
       <c r="E805" s="2"/>
     </row>
     <row r="806" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B806" s="17"/>
+      <c r="B806" s="16"/>
       <c r="E806" s="2"/>
     </row>
     <row r="807" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B807" s="17"/>
+      <c r="B807" s="16"/>
       <c r="E807" s="2"/>
     </row>
     <row r="808" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B808" s="17"/>
+      <c r="B808" s="16"/>
       <c r="E808" s="2"/>
     </row>
     <row r="809" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B809" s="17"/>
+      <c r="B809" s="16"/>
       <c r="E809" s="2"/>
     </row>
     <row r="810" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B810" s="17"/>
+      <c r="B810" s="16"/>
       <c r="E810" s="2"/>
     </row>
     <row r="811" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B811" s="17"/>
+      <c r="B811" s="16"/>
       <c r="E811" s="2"/>
     </row>
     <row r="812" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B812" s="17"/>
+      <c r="B812" s="16"/>
       <c r="E812" s="2"/>
     </row>
     <row r="813" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B813" s="17"/>
+      <c r="B813" s="16"/>
       <c r="E813" s="2"/>
     </row>
     <row r="814" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B814" s="17"/>
+      <c r="B814" s="16"/>
       <c r="E814" s="2"/>
     </row>
     <row r="815" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B815" s="17"/>
+      <c r="B815" s="16"/>
       <c r="E815" s="2"/>
     </row>
     <row r="816" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B816" s="17"/>
+      <c r="B816" s="16"/>
       <c r="E816" s="2"/>
     </row>
     <row r="817" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B817" s="17"/>
+      <c r="B817" s="16"/>
       <c r="E817" s="2"/>
     </row>
     <row r="818" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B818" s="17"/>
+      <c r="B818" s="16"/>
       <c r="E818" s="2"/>
     </row>
     <row r="819" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B819" s="17"/>
+      <c r="B819" s="16"/>
       <c r="E819" s="2"/>
     </row>
     <row r="820" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B820" s="17"/>
+      <c r="B820" s="16"/>
       <c r="E820" s="2"/>
     </row>
     <row r="821" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B821" s="17"/>
+      <c r="B821" s="16"/>
       <c r="E821" s="2"/>
     </row>
     <row r="822" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B822" s="17"/>
+      <c r="B822" s="16"/>
       <c r="E822" s="2"/>
     </row>
     <row r="823" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B823" s="17"/>
+      <c r="B823" s="16"/>
       <c r="E823" s="2"/>
     </row>
     <row r="824" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B824" s="17"/>
+      <c r="B824" s="16"/>
       <c r="E824" s="2"/>
     </row>
     <row r="825" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B825" s="17"/>
+      <c r="B825" s="16"/>
       <c r="E825" s="2"/>
     </row>
     <row r="826" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B826" s="17"/>
+      <c r="B826" s="16"/>
       <c r="E826" s="2"/>
     </row>
     <row r="827" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B827" s="17"/>
+      <c r="B827" s="16"/>
       <c r="E827" s="2"/>
     </row>
     <row r="828" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B828" s="17"/>
+      <c r="B828" s="16"/>
       <c r="E828" s="2"/>
     </row>
     <row r="829" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B829" s="17"/>
+      <c r="B829" s="16"/>
       <c r="E829" s="2"/>
     </row>
     <row r="830" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B830" s="17"/>
+      <c r="B830" s="16"/>
       <c r="E830" s="2"/>
     </row>
     <row r="831" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B831" s="17"/>
+      <c r="B831" s="16"/>
       <c r="E831" s="2"/>
     </row>
     <row r="832" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B832" s="17"/>
+      <c r="B832" s="16"/>
       <c r="E832" s="2"/>
     </row>
     <row r="833" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B833" s="17"/>
+      <c r="B833" s="16"/>
       <c r="E833" s="2"/>
     </row>
     <row r="834" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B834" s="17"/>
+      <c r="B834" s="16"/>
       <c r="E834" s="2"/>
     </row>
     <row r="835" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B835" s="17"/>
+      <c r="B835" s="16"/>
       <c r="E835" s="2"/>
     </row>
     <row r="836" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B836" s="17"/>
+      <c r="B836" s="16"/>
       <c r="E836" s="2"/>
     </row>
     <row r="837" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B837" s="17"/>
+      <c r="B837" s="16"/>
       <c r="E837" s="2"/>
     </row>
     <row r="838" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B838" s="17"/>
+      <c r="B838" s="16"/>
       <c r="E838" s="2"/>
     </row>
     <row r="839" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B839" s="17"/>
+      <c r="B839" s="16"/>
       <c r="E839" s="2"/>
     </row>
     <row r="840" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B840" s="17"/>
+      <c r="B840" s="16"/>
       <c r="E840" s="2"/>
     </row>
     <row r="841" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B841" s="17"/>
+      <c r="B841" s="16"/>
       <c r="E841" s="2"/>
     </row>
     <row r="842" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B842" s="17"/>
+      <c r="B842" s="16"/>
       <c r="E842" s="2"/>
     </row>
     <row r="843" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B843" s="17"/>
+      <c r="B843" s="16"/>
       <c r="E843" s="2"/>
     </row>
     <row r="844" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B844" s="17"/>
+      <c r="B844" s="16"/>
       <c r="E844" s="2"/>
     </row>
     <row r="845" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B845" s="17"/>
+      <c r="B845" s="16"/>
       <c r="E845" s="2"/>
     </row>
     <row r="846" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B846" s="17"/>
+      <c r="B846" s="16"/>
       <c r="E846" s="2"/>
     </row>
     <row r="847" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B847" s="17"/>
+      <c r="B847" s="16"/>
       <c r="E847" s="2"/>
     </row>
     <row r="848" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B848" s="17"/>
+      <c r="B848" s="16"/>
       <c r="E848" s="2"/>
     </row>
     <row r="849" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B849" s="17"/>
+      <c r="B849" s="16"/>
       <c r="E849" s="2"/>
     </row>
     <row r="850" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B850" s="17"/>
+      <c r="B850" s="16"/>
       <c r="E850" s="2"/>
     </row>
     <row r="851" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B851" s="17"/>
+      <c r="B851" s="16"/>
       <c r="E851" s="2"/>
     </row>
     <row r="852" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B852" s="17"/>
+      <c r="B852" s="16"/>
       <c r="E852" s="2"/>
     </row>
     <row r="853" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B853" s="17"/>
+      <c r="B853" s="16"/>
       <c r="E853" s="2"/>
     </row>
     <row r="854" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B854" s="17"/>
+      <c r="B854" s="16"/>
       <c r="E854" s="2"/>
     </row>
     <row r="855" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B855" s="17"/>
+      <c r="B855" s="16"/>
       <c r="E855" s="2"/>
     </row>
     <row r="856" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B856" s="17"/>
+      <c r="B856" s="16"/>
       <c r="E856" s="2"/>
     </row>
     <row r="857" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B857" s="17"/>
+      <c r="B857" s="16"/>
       <c r="E857" s="2"/>
     </row>
     <row r="858" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B858" s="17"/>
+      <c r="B858" s="16"/>
       <c r="E858" s="2"/>
     </row>
     <row r="859" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B859" s="17"/>
+      <c r="B859" s="16"/>
       <c r="E859" s="2"/>
     </row>
     <row r="860" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B860" s="17"/>
+      <c r="B860" s="16"/>
       <c r="E860" s="2"/>
     </row>
     <row r="861" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B861" s="17"/>
+      <c r="B861" s="16"/>
       <c r="E861" s="2"/>
     </row>
     <row r="862" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B862" s="17"/>
+      <c r="B862" s="16"/>
       <c r="E862" s="2"/>
     </row>
     <row r="863" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B863" s="17"/>
+      <c r="B863" s="16"/>
       <c r="E863" s="2"/>
     </row>
     <row r="864" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B864" s="17"/>
+      <c r="B864" s="16"/>
       <c r="E864" s="2"/>
     </row>
     <row r="865" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B865" s="17"/>
+      <c r="B865" s="16"/>
       <c r="E865" s="2"/>
     </row>
     <row r="866" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B866" s="17"/>
+      <c r="B866" s="16"/>
       <c r="E866" s="2"/>
     </row>
     <row r="867" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B867" s="17"/>
+      <c r="B867" s="16"/>
       <c r="E867" s="2"/>
     </row>
     <row r="868" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B868" s="17"/>
+      <c r="B868" s="16"/>
       <c r="E868" s="2"/>
     </row>
     <row r="869" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B869" s="17"/>
+      <c r="B869" s="16"/>
       <c r="E869" s="2"/>
     </row>
     <row r="870" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B870" s="17"/>
+      <c r="B870" s="16"/>
       <c r="E870" s="2"/>
     </row>
     <row r="871" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B871" s="17"/>
+      <c r="B871" s="16"/>
       <c r="E871" s="2"/>
     </row>
     <row r="872" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B872" s="17"/>
+      <c r="B872" s="16"/>
       <c r="E872" s="2"/>
     </row>
     <row r="873" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B873" s="17"/>
+      <c r="B873" s="16"/>
       <c r="E873" s="2"/>
     </row>
     <row r="874" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B874" s="17"/>
+      <c r="B874" s="16"/>
       <c r="E874" s="2"/>
     </row>
     <row r="875" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B875" s="17"/>
+      <c r="B875" s="16"/>
       <c r="E875" s="2"/>
     </row>
     <row r="876" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B876" s="17"/>
+      <c r="B876" s="16"/>
       <c r="E876" s="2"/>
     </row>
     <row r="877" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B877" s="17"/>
+      <c r="B877" s="16"/>
       <c r="E877" s="2"/>
     </row>
     <row r="878" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B878" s="17"/>
+      <c r="B878" s="16"/>
       <c r="E878" s="2"/>
     </row>
     <row r="879" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B879" s="17"/>
+      <c r="B879" s="16"/>
       <c r="E879" s="2"/>
     </row>
     <row r="880" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B880" s="17"/>
+      <c r="B880" s="16"/>
       <c r="E880" s="2"/>
     </row>
     <row r="881" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B881" s="17"/>
+      <c r="B881" s="16"/>
       <c r="E881" s="2"/>
     </row>
     <row r="882" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B882" s="17"/>
+      <c r="B882" s="16"/>
       <c r="E882" s="2"/>
     </row>
     <row r="883" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B883" s="17"/>
+      <c r="B883" s="16"/>
       <c r="E883" s="2"/>
     </row>
     <row r="884" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B884" s="17"/>
+      <c r="B884" s="16"/>
       <c r="E884" s="2"/>
     </row>
     <row r="885" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B885" s="17"/>
+      <c r="B885" s="16"/>
       <c r="E885" s="2"/>
     </row>
     <row r="886" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B886" s="17"/>
+      <c r="B886" s="16"/>
       <c r="E886" s="2"/>
     </row>
     <row r="887" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B887" s="17"/>
+      <c r="B887" s="16"/>
       <c r="E887" s="2"/>
     </row>
     <row r="888" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B888" s="17"/>
+      <c r="B888" s="16"/>
       <c r="E888" s="2"/>
     </row>
     <row r="889" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B889" s="17"/>
+      <c r="B889" s="16"/>
       <c r="E889" s="2"/>
     </row>
     <row r="890" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B890" s="17"/>
+      <c r="B890" s="16"/>
       <c r="E890" s="2"/>
     </row>
     <row r="891" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B891" s="17"/>
+      <c r="B891" s="16"/>
       <c r="E891" s="2"/>
     </row>
     <row r="892" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B892" s="17"/>
+      <c r="B892" s="16"/>
       <c r="E892" s="2"/>
     </row>
     <row r="893" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B893" s="17"/>
+      <c r="B893" s="16"/>
       <c r="E893" s="2"/>
     </row>
     <row r="894" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B894" s="17"/>
+      <c r="B894" s="16"/>
       <c r="E894" s="2"/>
     </row>
     <row r="895" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B895" s="17"/>
+      <c r="B895" s="16"/>
       <c r="E895" s="2"/>
     </row>
     <row r="896" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B896" s="17"/>
+      <c r="B896" s="16"/>
       <c r="E896" s="2"/>
     </row>
     <row r="897" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B897" s="17"/>
+      <c r="B897" s="16"/>
       <c r="E897" s="2"/>
     </row>
     <row r="898" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B898" s="17"/>
+      <c r="B898" s="16"/>
       <c r="E898" s="2"/>
     </row>
     <row r="899" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B899" s="17"/>
+      <c r="B899" s="16"/>
       <c r="E899" s="2"/>
     </row>
     <row r="900" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B900" s="17"/>
+      <c r="B900" s="16"/>
       <c r="E900" s="2"/>
     </row>
     <row r="901" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B901" s="17"/>
+      <c r="B901" s="16"/>
       <c r="E901" s="2"/>
     </row>
     <row r="902" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B902" s="17"/>
+      <c r="B902" s="16"/>
       <c r="E902" s="2"/>
     </row>
     <row r="903" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B903" s="17"/>
+      <c r="B903" s="16"/>
       <c r="E903" s="2"/>
     </row>
     <row r="904" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B904" s="17"/>
+      <c r="B904" s="16"/>
       <c r="E904" s="2"/>
     </row>
     <row r="905" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B905" s="17"/>
+      <c r="B905" s="16"/>
       <c r="E905" s="2"/>
     </row>
     <row r="906" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B906" s="17"/>
+      <c r="B906" s="16"/>
       <c r="E906" s="2"/>
     </row>
     <row r="907" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B907" s="17"/>
+      <c r="B907" s="16"/>
       <c r="E907" s="2"/>
     </row>
     <row r="908" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B908" s="17"/>
+      <c r="B908" s="16"/>
       <c r="E908" s="2"/>
     </row>
     <row r="909" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B909" s="17"/>
+      <c r="B909" s="16"/>
       <c r="E909" s="2"/>
     </row>
     <row r="910" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B910" s="17"/>
+      <c r="B910" s="16"/>
       <c r="E910" s="2"/>
     </row>
     <row r="911" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B911" s="17"/>
+      <c r="B911" s="16"/>
       <c r="E911" s="2"/>
     </row>
     <row r="912" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B912" s="17"/>
+      <c r="B912" s="16"/>
       <c r="E912" s="2"/>
     </row>
     <row r="913" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B913" s="17"/>
+      <c r="B913" s="16"/>
       <c r="E913" s="2"/>
     </row>
     <row r="914" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B914" s="17"/>
+      <c r="B914" s="16"/>
       <c r="E914" s="2"/>
     </row>
     <row r="915" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B915" s="17"/>
+      <c r="B915" s="16"/>
       <c r="E915" s="2"/>
     </row>
     <row r="916" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B916" s="17"/>
+      <c r="B916" s="16"/>
       <c r="E916" s="2"/>
     </row>
     <row r="917" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B917" s="17"/>
+      <c r="B917" s="16"/>
       <c r="E917" s="2"/>
     </row>
     <row r="918" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B918" s="17"/>
+      <c r="B918" s="16"/>
       <c r="E918" s="2"/>
     </row>
     <row r="919" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B919" s="17"/>
+      <c r="B919" s="16"/>
       <c r="E919" s="2"/>
     </row>
     <row r="920" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B920" s="17"/>
+      <c r="B920" s="16"/>
       <c r="E920" s="2"/>
     </row>
     <row r="921" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B921" s="17"/>
+      <c r="B921" s="16"/>
       <c r="E921" s="2"/>
     </row>
     <row r="922" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B922" s="17"/>
+      <c r="B922" s="16"/>
       <c r="E922" s="2"/>
     </row>
     <row r="923" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B923" s="17"/>
+      <c r="B923" s="16"/>
       <c r="E923" s="2"/>
     </row>
     <row r="924" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B924" s="17"/>
+      <c r="B924" s="16"/>
       <c r="E924" s="2"/>
     </row>
     <row r="925" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B925" s="17"/>
+      <c r="B925" s="16"/>
       <c r="E925" s="2"/>
     </row>
     <row r="926" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B926" s="17"/>
+      <c r="B926" s="16"/>
       <c r="E926" s="2"/>
     </row>
     <row r="927" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B927" s="17"/>
+      <c r="B927" s="16"/>
       <c r="E927" s="2"/>
     </row>
     <row r="928" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B928" s="17"/>
+      <c r="B928" s="16"/>
       <c r="E928" s="2"/>
     </row>
     <row r="929" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B929" s="17"/>
+      <c r="B929" s="16"/>
       <c r="E929" s="2"/>
     </row>
     <row r="930" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B930" s="17"/>
+      <c r="B930" s="16"/>
       <c r="E930" s="2"/>
     </row>
     <row r="931" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B931" s="17"/>
+      <c r="B931" s="16"/>
       <c r="E931" s="2"/>
     </row>
     <row r="932" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B932" s="17"/>
+      <c r="B932" s="16"/>
       <c r="E932" s="2"/>
     </row>
     <row r="933" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B933" s="17"/>
+      <c r="B933" s="16"/>
       <c r="E933" s="2"/>
     </row>
     <row r="934" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B934" s="17"/>
+      <c r="B934" s="16"/>
       <c r="E934" s="2"/>
     </row>
     <row r="935" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B935" s="17"/>
+      <c r="B935" s="16"/>
       <c r="E935" s="2"/>
     </row>
     <row r="936" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B936" s="17"/>
+      <c r="B936" s="16"/>
       <c r="E936" s="2"/>
     </row>
     <row r="937" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B937" s="17"/>
+      <c r="B937" s="16"/>
       <c r="E937" s="2"/>
     </row>
     <row r="938" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B938" s="17"/>
+      <c r="B938" s="16"/>
       <c r="E938" s="2"/>
     </row>
     <row r="939" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B939" s="17"/>
+      <c r="B939" s="16"/>
       <c r="E939" s="2"/>
     </row>
     <row r="940" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B940" s="17"/>
+      <c r="B940" s="16"/>
       <c r="E940" s="2"/>
     </row>
     <row r="941" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B941" s="17"/>
+      <c r="B941" s="16"/>
       <c r="E941" s="2"/>
     </row>
     <row r="942" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B942" s="17"/>
+      <c r="B942" s="16"/>
       <c r="E942" s="2"/>
     </row>
     <row r="943" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B943" s="17"/>
+      <c r="B943" s="16"/>
       <c r="E943" s="2"/>
     </row>
     <row r="944" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B944" s="17"/>
+      <c r="B944" s="16"/>
       <c r="E944" s="2"/>
     </row>
     <row r="945" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B945" s="17"/>
+      <c r="B945" s="16"/>
       <c r="E945" s="2"/>
     </row>
     <row r="946" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B946" s="17"/>
+      <c r="B946" s="16"/>
       <c r="E946" s="2"/>
     </row>
     <row r="947" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B947" s="17"/>
+      <c r="B947" s="16"/>
       <c r="E947" s="2"/>
     </row>
     <row r="948" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B948" s="17"/>
+      <c r="B948" s="16"/>
       <c r="E948" s="2"/>
     </row>
     <row r="949" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B949" s="17"/>
+      <c r="B949" s="16"/>
       <c r="E949" s="2"/>
     </row>
     <row r="950" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B950" s="17"/>
+      <c r="B950" s="16"/>
       <c r="E950" s="2"/>
     </row>
     <row r="951" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B951" s="17"/>
+      <c r="B951" s="16"/>
       <c r="E951" s="2"/>
     </row>
     <row r="952" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B952" s="17"/>
+      <c r="B952" s="16"/>
       <c r="E952" s="2"/>
     </row>
   </sheetData>
@@ -5122,8 +5188,16 @@
     <hyperlink ref="E30" r:id="rId42" xr:uid="{D0BEC808-10B9-4072-BE01-E776DDC4397F}"/>
     <hyperlink ref="E31" r:id="rId43" xr:uid="{5E6E1DF9-BA1E-4559-BBF5-E5BC1C38BE9D}"/>
     <hyperlink ref="D31" r:id="rId44" xr:uid="{1599C469-3AC1-4719-9740-804A8DC2ACF4}"/>
+    <hyperlink ref="D32" r:id="rId45" xr:uid="{E6CDA80D-885D-4A91-B7A1-D18F338006DD}"/>
+    <hyperlink ref="E32" r:id="rId46" xr:uid="{36B3C764-85D3-4D36-A7D5-A34E8891CB6B}"/>
+    <hyperlink ref="D34" r:id="rId47" xr:uid="{547C585B-0A0F-4B49-B881-05B559A7DA12}"/>
+    <hyperlink ref="D35" r:id="rId48" xr:uid="{6C364431-9280-4269-986F-BCC14AA37D1A}"/>
+    <hyperlink ref="D37" r:id="rId49" xr:uid="{A4373B57-C912-4324-ABB6-C413752F4693}"/>
+    <hyperlink ref="D38" r:id="rId50" xr:uid="{7308551A-6473-4598-8C92-60D5DFFA7C82}"/>
+    <hyperlink ref="E34" r:id="rId51" xr:uid="{91220D72-C127-494A-A95F-1378281ED5D7}"/>
+    <hyperlink ref="E35" r:id="rId52" xr:uid="{2FF7A6D0-69D9-4F96-95B4-D114DC3C2EC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
--- a/SmartLab寒假编程训练.xlsx
+++ b/SmartLab寒假编程训练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\MyLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC46DEE-F339-4F02-9B77-961FE2AD1499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2769C128-E467-4573-9CC3-F2ACC8EF21D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>分类</t>
   </si>
@@ -591,6 +591,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,8 +603,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -923,8 +923,8 @@
   </sheetPr>
   <dimension ref="A1:F952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="15"/>
@@ -979,7 +979,7 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
         <v>57</v>
@@ -999,7 +999,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
         <v>58</v>
@@ -1009,7 +1009,7 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -1019,7 +1019,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -1029,22 +1029,22 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="8"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="8"/>
       <c r="F11" s="12"/>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1224,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="15" t="s">
         <v>87</v>
       </c>
@@ -1371,7 +1371,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="15" t="s">
         <v>89</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -1403,7 +1403,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="15" t="s">
         <v>91</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="15" t="s">
         <v>89</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="15" t="s">
         <v>91</v>
       </c>
@@ -1460,10 +1460,12 @@
       <c r="D37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="15" t="s">
         <v>89</v>
       </c>
@@ -1473,7 +1475,9 @@
       <c r="D38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B39" s="16"/>
@@ -5196,8 +5200,10 @@
     <hyperlink ref="D38" r:id="rId50" xr:uid="{7308551A-6473-4598-8C92-60D5DFFA7C82}"/>
     <hyperlink ref="E34" r:id="rId51" xr:uid="{91220D72-C127-494A-A95F-1378281ED5D7}"/>
     <hyperlink ref="E35" r:id="rId52" xr:uid="{2FF7A6D0-69D9-4F96-95B4-D114DC3C2EC1}"/>
+    <hyperlink ref="E37" r:id="rId53" xr:uid="{D3132CCE-B930-4F79-B389-56350DF6AD20}"/>
+    <hyperlink ref="E38" r:id="rId54" xr:uid="{DC384904-BC9B-4FE2-998B-0986D5C8DA1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>